--- a/park_oil.xlsx
+++ b/park_oil.xlsx
@@ -698,6 +698,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -799,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,7 +852,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1263,13 +1272,13 @@
       <c r="I3" s="15">
         <v>0.12152777777777778</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="17">
         <v>0.25</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="17">
         <v>0.2638888888888889</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="17">
         <v>0.2673611111111111</v>
       </c>
     </row>
@@ -1298,13 +1307,13 @@
       <c r="I4" s="16">
         <v>0.70138888888888884</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="18">
         <v>0.76736111111111116</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="18">
         <v>0.78125</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="18">
         <v>0.78472222222222221</v>
       </c>
     </row>
@@ -1333,13 +1342,13 @@
       <c r="I5" s="16">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="18">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="18">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -1368,13 +1377,13 @@
       <c r="I6" s="16">
         <v>0.12152777777777778</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="18">
         <v>0.20486111111111113</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="18">
         <v>0.21180555555555555</v>
       </c>
     </row>
@@ -1403,13 +1412,13 @@
       <c r="I7" s="16">
         <v>0.47222222222222227</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="18">
         <v>0.4826388888888889</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="18">
         <v>0.49652777777777773</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="18">
         <v>0.5</v>
       </c>
     </row>
@@ -1438,13 +1447,13 @@
       <c r="I8" s="16">
         <v>0.68055555555555547</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="18">
         <v>0.6875</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="18">
         <v>0.70138888888888884</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="18">
         <v>0.70833333333333337</v>
       </c>
     </row>
@@ -1473,13 +1482,13 @@
       <c r="I9" s="16">
         <v>0.68055555555555547</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="18">
         <v>0.6875</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="18">
         <v>0.70833333333333337</v>
       </c>
     </row>
@@ -1508,13 +1517,13 @@
       <c r="I10" s="16">
         <v>0.6875</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="18">
         <v>0.76388888888888884</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="18">
         <v>0.77777777777777779</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="18">
         <v>0.78125</v>
       </c>
     </row>
@@ -1543,13 +1552,13 @@
       <c r="I11" s="16">
         <v>0.75</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="18">
         <v>0.9375</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="18">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="18">
         <v>0.95486111111111116</v>
       </c>
     </row>
@@ -1575,16 +1584,16 @@
       <c r="H12" s="9">
         <v>20.98</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="I12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1610,16 +1619,16 @@
       <c r="H13" s="9">
         <v>22.620000000000005</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="18">
         <v>0.59722222222222221</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="18">
         <v>0.60069444444444442</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="18">
         <v>0.62152777777777779</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="18">
         <v>0.625</v>
       </c>
     </row>
@@ -1645,16 +1654,16 @@
       <c r="H14" s="9">
         <v>23.639999999999997</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="18">
         <v>0.90972222222222221</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="18">
         <v>0.91319444444444453</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="18">
         <v>0.92708333333333337</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="18">
         <v>0.93055555555555547</v>
       </c>
     </row>
@@ -1680,16 +1689,16 @@
       <c r="H15" s="9">
         <v>19.36</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="6" t="s">
+      <c r="I15" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1715,16 +1724,16 @@
       <c r="H16" s="9">
         <v>20.18</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="I16" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1750,16 +1759,16 @@
       <c r="H17" s="9">
         <v>23.2</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="18">
         <v>0.77083333333333337</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="18">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -1785,16 +1794,16 @@
       <c r="H18" s="9">
         <v>21.84</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="18">
         <v>0.875</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="18">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -1820,16 +1829,16 @@
       <c r="H19" s="9">
         <v>22.82</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="18">
         <v>0.49652777777777773</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="18">
         <v>0.50694444444444442</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="18">
         <v>0.52083333333333337</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="18">
         <v>0.52430555555555558</v>
       </c>
     </row>
@@ -1855,16 +1864,16 @@
       <c r="H20" s="9">
         <v>21.66</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="18">
         <v>0.62847222222222221</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="18">
         <v>0.63194444444444442</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="18">
         <v>0.64583333333333337</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="18">
         <v>0.64930555555555558</v>
       </c>
     </row>
@@ -1890,16 +1899,16 @@
       <c r="H21" s="9">
         <v>22.34</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="18">
         <v>0.64930555555555558</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="18">
         <v>0.66319444444444442</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="18">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1925,16 +1934,16 @@
       <c r="H22" s="9">
         <v>21.580000000000002</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="18">
         <v>0.75694444444444453</v>
       </c>
     </row>
@@ -1960,16 +1969,16 @@
       <c r="H23" s="9">
         <v>21.24</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="18">
         <v>0.11805555555555557</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="18">
         <v>0.1423611111111111</v>
       </c>
     </row>
@@ -1995,16 +2004,16 @@
       <c r="H24" s="9">
         <v>23.000000000000004</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="18">
         <v>0.66319444444444442</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="18">
         <v>0.69791666666666663</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="18">
         <v>0.71180555555555547</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="18">
         <v>0.71527777777777779</v>
       </c>
     </row>
@@ -2030,16 +2039,16 @@
       <c r="H25" s="9">
         <v>18.88</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L25" s="16">
+      <c r="I25" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="18">
         <v>0.50694444444444442</v>
       </c>
     </row>
@@ -2065,16 +2074,16 @@
       <c r="H26" s="9">
         <v>20.96</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L26" s="16">
+      <c r="I26" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="18">
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -2100,16 +2109,16 @@
       <c r="H27" s="9">
         <v>23.860000000000003</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="18">
         <v>6.5972222222222224E-2</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="18">
         <v>0.11805555555555557</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="18">
         <v>0.13541666666666666</v>
       </c>
     </row>
@@ -2135,16 +2144,16 @@
       <c r="H28" s="9">
         <v>22.14</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="18">
         <v>0.23263888888888887</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="18">
         <v>0.24305555555555555</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="18">
         <v>0.25347222222222221</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="18">
         <v>0.25694444444444448</v>
       </c>
     </row>
@@ -2170,16 +2179,16 @@
       <c r="H29" s="9">
         <v>22.439999999999998</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="18">
         <v>0.40972222222222227</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="18">
         <v>0.41319444444444442</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="18">
         <v>0.42708333333333331</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="18">
         <v>0.43055555555555558</v>
       </c>
     </row>
@@ -2205,16 +2214,16 @@
       <c r="H30" s="9">
         <v>23.82</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="18">
         <v>0.5</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="18">
         <v>0.50694444444444442</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="18">
         <v>0.54513888888888895</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="18">
         <v>0.54861111111111105</v>
       </c>
     </row>
@@ -2240,16 +2249,16 @@
       <c r="H31" s="9">
         <v>21.3</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="18">
         <v>0.57986111111111105</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="18">
         <v>0.58680555555555558</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="18">
         <v>0.60069444444444442</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="18">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -2275,16 +2284,16 @@
       <c r="H32" s="9">
         <v>22.82</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="18">
         <v>0.63888888888888895</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="18">
         <v>0.71180555555555547</v>
       </c>
     </row>
@@ -2310,16 +2319,16 @@
       <c r="H33" s="9">
         <v>23.5</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="18">
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="18">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="18">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -2345,16 +2354,16 @@
       <c r="H34" s="9">
         <v>20.6</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="18">
         <v>0.19444444444444445</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="18">
         <v>0.25694444444444448</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="18">
         <v>0.27083333333333331</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="18">
         <v>0.27430555555555552</v>
       </c>
     </row>
@@ -2380,16 +2389,16 @@
       <c r="H35" s="9">
         <v>20.900000000000002</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="18">
         <v>0.68055555555555547</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="18">
         <v>0.68402777777777779</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="18">
         <v>0.71527777777777779</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="18">
         <v>0.71875</v>
       </c>
     </row>
@@ -2415,16 +2424,16 @@
       <c r="H36" s="9">
         <v>22.04</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L36" s="4" t="s">
+      <c r="I36" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L36" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2450,16 +2459,16 @@
       <c r="H37" s="9">
         <v>20.38</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L37" s="4" t="s">
+      <c r="I37" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2485,16 +2494,16 @@
       <c r="H38" s="9">
         <v>24.700000000000003</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="18">
         <v>3.8194444444444441E-2</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
@@ -2520,16 +2529,16 @@
       <c r="H39" s="9">
         <v>21.880000000000003</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="18">
         <v>0.1076388888888889</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L39" s="18">
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -2555,16 +2564,16 @@
       <c r="H40" s="9">
         <v>22.879999999999995</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="18">
         <v>0.12152777777777778</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="18">
         <v>0.125</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="18">
         <v>0.13541666666666666</v>
       </c>
-      <c r="L40" s="16">
+      <c r="L40" s="18">
         <v>0.1388888888888889</v>
       </c>
     </row>
@@ -2590,16 +2599,16 @@
       <c r="H41" s="9">
         <v>22.34</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="18">
         <v>0.16666666666666666</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="18">
         <v>0.25694444444444448</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="18">
         <v>0.2673611111111111</v>
       </c>
-      <c r="L41" s="16">
+      <c r="L41" s="18">
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -2625,16 +2634,16 @@
       <c r="H42" s="9">
         <v>22.7</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="18">
         <v>0.78125</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="18">
         <v>0.78472222222222221</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="18">
         <v>0.79861111111111116</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="18">
         <v>0.80208333333333337</v>
       </c>
     </row>
@@ -2660,16 +2669,16 @@
       <c r="H43" s="9">
         <v>22.779999999999998</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="18">
         <v>0.8125</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="18">
         <v>0.82291666666666663</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L43" s="18">
         <v>0.83680555555555547</v>
       </c>
     </row>
@@ -2695,16 +2704,16 @@
       <c r="H44" s="9">
         <v>22.6</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="18">
         <v>0.8125</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="18">
         <v>0.82291666666666663</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L44" s="18">
         <v>0.83680555555555547</v>
       </c>
     </row>
@@ -2730,16 +2739,16 @@
       <c r="H45" s="9">
         <v>22.419999999999998</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="18">
         <v>0.65277777777777779</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="18">
         <v>0.65972222222222221</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="L45" s="16">
+      <c r="L45" s="18">
         <v>0.70138888888888884</v>
       </c>
     </row>
@@ -2765,16 +2774,16 @@
       <c r="H46" s="9">
         <v>21.82</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L46" s="16">
+      <c r="I46" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L46" s="18">
         <v>0.59722222222222221</v>
       </c>
     </row>
@@ -2800,16 +2809,16 @@
       <c r="H47" s="9">
         <v>21.22</v>
       </c>
-      <c r="I47" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L47" s="16">
+      <c r="I47" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L47" s="18">
         <v>0.6875</v>
       </c>
     </row>
@@ -2835,16 +2844,16 @@
       <c r="H48" s="9">
         <v>21.759999999999998</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="18">
         <v>0.19444444444444445</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="18">
         <v>0.20138888888888887</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="18">
         <v>0.21875</v>
       </c>
-      <c r="L48" s="16">
+      <c r="L48" s="18">
         <v>0.22222222222222221</v>
       </c>
     </row>
@@ -2870,16 +2879,16 @@
       <c r="H49" s="9">
         <v>22.84</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="18">
         <v>0.53472222222222221</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="18">
         <v>0.53819444444444442</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="18">
         <v>0.55208333333333337</v>
       </c>
-      <c r="L49" s="16">
+      <c r="L49" s="18">
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -2905,16 +2914,16 @@
       <c r="H50" s="9">
         <v>22.32</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="18">
         <v>0.67708333333333337</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="18">
         <v>0.6875</v>
       </c>
-      <c r="L50" s="16">
+      <c r="L50" s="18">
         <v>0.70138888888888884</v>
       </c>
     </row>
@@ -2940,16 +2949,16 @@
       <c r="H51" s="9">
         <v>21.959999999999997</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="18">
         <v>0.71180555555555547</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="18">
         <v>0.72569444444444453</v>
       </c>
-      <c r="L51" s="16">
+      <c r="L51" s="18">
         <v>0.73263888888888884</v>
       </c>
     </row>
@@ -2975,16 +2984,16 @@
       <c r="H52" s="9">
         <v>22.099999999999998</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="18">
         <v>0.75</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K52" s="18">
         <v>0.76736111111111116</v>
       </c>
-      <c r="L52" s="16">
+      <c r="L52" s="18">
         <v>0.77083333333333337</v>
       </c>
     </row>
@@ -3010,16 +3019,16 @@
       <c r="H53" s="9">
         <v>21.859999999999996</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="18">
         <v>0.82638888888888884</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="18">
         <v>0.85069444444444453</v>
       </c>
-      <c r="L53" s="16">
+      <c r="L53" s="18">
         <v>0.85416666666666663</v>
       </c>
     </row>
@@ -3045,16 +3054,16 @@
       <c r="H54" s="9">
         <v>21.939999999999998</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="18">
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="18">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K54" s="18">
         <v>6.25E-2</v>
       </c>
-      <c r="L54" s="16">
+      <c r="L54" s="18">
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
@@ -3080,16 +3089,16 @@
       <c r="H55" s="9">
         <v>23.160000000000004</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="18">
         <v>0.30555555555555552</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="18">
         <v>0.31597222222222221</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="18">
         <v>0.3298611111111111</v>
       </c>
-      <c r="L55" s="16">
+      <c r="L55" s="18">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -3115,16 +3124,16 @@
       <c r="H56" s="9">
         <v>21.700000000000003</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="18">
         <v>0.71527777777777779</v>
       </c>
-      <c r="L56" s="16">
+      <c r="L56" s="18">
         <v>0.72222222222222221</v>
       </c>
     </row>
@@ -3150,16 +3159,16 @@
       <c r="H57" s="9">
         <v>21.999999999999996</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="18">
         <v>3.8194444444444441E-2</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L57" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
@@ -3185,16 +3194,16 @@
       <c r="H58" s="9">
         <v>21.62</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="18">
         <v>6.805555555555555E-2</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L58" s="16">
+      <c r="L58" s="18">
         <v>8.6805555555555566E-2</v>
       </c>
     </row>
@@ -3220,16 +3229,16 @@
       <c r="H59" s="9">
         <v>21.479999999999997</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="18">
         <v>0.10416666666666667</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="18">
         <v>0.11458333333333333</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L59" s="18">
         <v>0.11805555555555557</v>
       </c>
     </row>
@@ -3255,16 +3264,16 @@
       <c r="H60" s="9">
         <v>20.86</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="18">
         <v>0.14583333333333334</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="18">
         <v>0.14930555555555555</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="18">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L60" s="18">
         <v>0.24305555555555555</v>
       </c>
     </row>
@@ -3290,16 +3299,16 @@
       <c r="H61" s="9">
         <v>22.819999999999997</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="18">
         <v>0.63194444444444442</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="18">
         <v>0.64930555555555558</v>
       </c>
-      <c r="L61" s="16">
+      <c r="L61" s="18">
         <v>0.65277777777777779</v>
       </c>
     </row>
@@ -3325,16 +3334,16 @@
       <c r="H62" s="9">
         <v>22.18</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="18">
         <v>0.68055555555555547</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="18">
         <v>0.6875</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L62" s="16">
+      <c r="L62" s="18">
         <v>0.71875</v>
       </c>
     </row>
@@ -3360,16 +3369,16 @@
       <c r="H63" s="9">
         <v>22.5</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I63" s="18">
         <v>0.77430555555555547</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="18">
         <v>0.77777777777777779</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L63" s="16">
+      <c r="L63" s="18">
         <v>0.79861111111111116</v>
       </c>
     </row>
@@ -3395,16 +3404,16 @@
       <c r="H64" s="9">
         <v>23.700000000000003</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="18">
         <v>0.88541666666666663</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J64" s="18">
         <v>0.88888888888888884</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="18">
         <v>0.89930555555555547</v>
       </c>
-      <c r="L64" s="16">
+      <c r="L64" s="18">
         <v>0.90277777777777779</v>
       </c>
     </row>
@@ -3430,16 +3439,16 @@
       <c r="H65" s="9">
         <v>22.82</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J65" s="18">
         <v>0.10416666666666667</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K65" s="18">
         <v>0.11805555555555557</v>
       </c>
-      <c r="L65" s="16">
+      <c r="L65" s="18">
         <v>0.12152777777777778</v>
       </c>
     </row>
@@ -3465,16 +3474,16 @@
       <c r="H66" s="9">
         <v>22.220000000000002</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I66" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J66" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="18">
         <v>0.76041666666666663</v>
       </c>
-      <c r="L66" s="16">
+      <c r="L66" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -3500,16 +3509,16 @@
       <c r="H67" s="9">
         <v>22.5</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J67" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K67" s="18">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="L67" s="16">
+      <c r="L67" s="18">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -3535,16 +3544,16 @@
       <c r="H68" s="9">
         <v>22.759999999999998</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J68" s="18">
         <v>0.10416666666666667</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="18">
         <v>0.11458333333333333</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L68" s="18">
         <v>0.11805555555555557</v>
       </c>
     </row>
@@ -3570,16 +3579,16 @@
       <c r="H69" s="9">
         <v>21.46</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="18">
         <v>0.11458333333333333</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="18">
         <v>0.13541666666666666</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K69" s="18">
         <v>0.14583333333333334</v>
       </c>
-      <c r="L69" s="16">
+      <c r="L69" s="18">
         <v>0.14930555555555555</v>
       </c>
     </row>
@@ -3605,16 +3614,16 @@
       <c r="H70" s="9">
         <v>21.479999999999997</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="18">
         <v>0.11458333333333333</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="18">
         <v>0.13541666666666666</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="18">
         <v>0.14930555555555555</v>
       </c>
-      <c r="L70" s="16">
+      <c r="L70" s="18">
         <v>0.15277777777777776</v>
       </c>
     </row>
@@ -3640,16 +3649,16 @@
       <c r="H71" s="9">
         <v>22</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J71" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="18">
         <v>0.75694444444444453</v>
       </c>
-      <c r="L71" s="16">
+      <c r="L71" s="18">
         <v>0.76041666666666663</v>
       </c>
     </row>
@@ -3675,16 +3684,16 @@
       <c r="H72" s="9">
         <v>22.039999999999996</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I72" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="18">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="18">
         <v>0.76736111111111116</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L72" s="18">
         <v>0.77083333333333337</v>
       </c>
     </row>
@@ -3710,16 +3719,16 @@
       <c r="H73" s="9">
         <v>23.720000000000002</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="18">
         <v>0.77777777777777779</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L73" s="16">
+      <c r="L73" s="18">
         <v>0.79513888888888884</v>
       </c>
     </row>
@@ -3745,16 +3754,16 @@
       <c r="H74" s="9">
         <v>22.159999999999997</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="18">
         <v>0.81597222222222221</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J74" s="18">
         <v>0.81944444444444453</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="18">
         <v>0.82986111111111116</v>
       </c>
-      <c r="L74" s="16">
+      <c r="L74" s="18">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -3780,16 +3789,16 @@
       <c r="H75" s="9">
         <v>22.060000000000002</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I75" s="18">
         <v>0.84375</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J75" s="18">
         <v>0.85069444444444453</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="18">
         <v>0.86805555555555547</v>
       </c>
-      <c r="L75" s="16">
+      <c r="L75" s="18">
         <v>0.87152777777777779</v>
       </c>
     </row>
@@ -3815,16 +3824,16 @@
       <c r="H76" s="9">
         <v>21.599999999999998</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J76" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K76" s="18">
         <v>0.11458333333333333</v>
       </c>
-      <c r="L76" s="16">
+      <c r="L76" s="18">
         <v>0.11805555555555557</v>
       </c>
     </row>
@@ -3850,16 +3859,16 @@
       <c r="H77" s="9">
         <v>23.12</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I77" s="18">
         <v>0.85069444444444453</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J77" s="18">
         <v>0.85416666666666663</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="18">
         <v>0.875</v>
       </c>
-      <c r="L77" s="16">
+      <c r="L77" s="18">
         <v>0.87847222222222221</v>
       </c>
     </row>
@@ -3885,16 +3894,16 @@
       <c r="H78" s="9">
         <v>20.28</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I78" s="18">
         <v>0.92013888888888884</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J78" s="18">
         <v>0.92361111111111116</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="18">
         <v>0.94097222222222221</v>
       </c>
-      <c r="L78" s="16">
+      <c r="L78" s="18">
         <v>0.94444444444444453</v>
       </c>
     </row>
@@ -3920,16 +3929,16 @@
       <c r="H79" s="9">
         <v>22</v>
       </c>
-      <c r="I79" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L79" s="16">
+      <c r="I79" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K79" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L79" s="18">
         <v>0.44791666666666669</v>
       </c>
     </row>
@@ -3955,16 +3964,16 @@
       <c r="H80" s="9">
         <v>20.399999999999999</v>
       </c>
-      <c r="I80" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L80" s="16">
+      <c r="I80" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K80" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L80" s="18">
         <v>0.63194444444444442</v>
       </c>
     </row>
@@ -3990,16 +3999,16 @@
       <c r="H81" s="9">
         <v>22.659999999999997</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I81" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J81" s="18">
         <v>6.25E-2</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K81" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="L81" s="16">
+      <c r="L81" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
@@ -4025,16 +4034,16 @@
       <c r="H82" s="9">
         <v>22.38</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I82" s="18">
         <v>0.46875</v>
       </c>
-      <c r="J82" s="16">
+      <c r="J82" s="18">
         <v>0.47222222222222227</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K82" s="18">
         <v>0.4861111111111111</v>
       </c>
-      <c r="L82" s="16">
+      <c r="L82" s="18">
         <v>0.49305555555555558</v>
       </c>
     </row>
@@ -4060,16 +4069,16 @@
       <c r="H83" s="9">
         <v>23.300000000000004</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I83" s="18">
         <v>0.47222222222222227</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J83" s="18">
         <v>0.47569444444444442</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K83" s="18">
         <v>0.49305555555555558</v>
       </c>
-      <c r="L83" s="16">
+      <c r="L83" s="18">
         <v>0.49652777777777773</v>
       </c>
     </row>
@@ -4095,16 +4104,16 @@
       <c r="H84" s="9">
         <v>23.440000000000005</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I84" s="18">
         <v>0.56944444444444442</v>
       </c>
-      <c r="J84" s="16">
+      <c r="J84" s="18">
         <v>0.57291666666666663</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K84" s="18">
         <v>0.58680555555555558</v>
       </c>
-      <c r="L84" s="16">
+      <c r="L84" s="18">
         <v>0.59027777777777779</v>
       </c>
     </row>
@@ -4130,16 +4139,16 @@
       <c r="H85" s="9">
         <v>22.200000000000003</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I85" s="18">
         <v>0.84722222222222221</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J85" s="18">
         <v>0.85069444444444453</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="18">
         <v>0.86458333333333337</v>
       </c>
-      <c r="L85" s="16">
+      <c r="L85" s="18">
         <v>0.875</v>
       </c>
     </row>
@@ -4165,16 +4174,16 @@
       <c r="H86" s="9">
         <v>22.759999999999998</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I86" s="18">
         <v>0.91666666666666663</v>
       </c>
-      <c r="J86" s="16">
+      <c r="J86" s="18">
         <v>0.92013888888888884</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K86" s="18">
         <v>0.93055555555555547</v>
       </c>
-      <c r="L86" s="16">
+      <c r="L86" s="18">
         <v>0.93402777777777779</v>
       </c>
     </row>
@@ -4200,16 +4209,16 @@
       <c r="H87" s="9">
         <v>21.339999999999996</v>
       </c>
-      <c r="I87" s="16">
+      <c r="I87" s="18">
         <v>0.93055555555555547</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J87" s="18">
         <v>0.93402777777777779</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K87" s="18">
         <v>0.94791666666666663</v>
       </c>
-      <c r="L87" s="16">
+      <c r="L87" s="18">
         <v>0.95138888888888884</v>
       </c>
     </row>
@@ -4235,16 +4244,16 @@
       <c r="H88" s="9">
         <v>25.72</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I88" s="18">
         <v>0.36805555555555558</v>
       </c>
-      <c r="J88" s="16">
+      <c r="J88" s="18">
         <v>0.375</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="18">
         <v>0.3923611111111111</v>
       </c>
-      <c r="L88" s="16">
+      <c r="L88" s="18">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -4270,16 +4279,16 @@
       <c r="H89" s="9">
         <v>23.519999999999996</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I89" s="18">
         <v>0.8125</v>
       </c>
-      <c r="J89" s="16">
+      <c r="J89" s="18">
         <v>0.81597222222222221</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="L89" s="16">
+      <c r="L89" s="18">
         <v>0.84027777777777779</v>
       </c>
     </row>
@@ -4305,16 +4314,16 @@
       <c r="H90" s="9">
         <v>21.84</v>
       </c>
-      <c r="I90" s="16">
+      <c r="I90" s="18">
         <v>0.20486111111111113</v>
       </c>
-      <c r="J90" s="16">
+      <c r="J90" s="18">
         <v>0.20833333333333334</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K90" s="18">
         <v>0.21875</v>
       </c>
-      <c r="L90" s="16">
+      <c r="L90" s="18">
         <v>0.22222222222222221</v>
       </c>
     </row>
@@ -4340,16 +4349,16 @@
       <c r="H91" s="9">
         <v>21.5</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I91" s="18">
         <v>0.22222222222222221</v>
       </c>
-      <c r="J91" s="16">
+      <c r="J91" s="18">
         <v>0.22222222222222221</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="18">
         <v>0.23263888888888887</v>
       </c>
-      <c r="L91" s="16">
+      <c r="L91" s="18">
         <v>0.23611111111111113</v>
       </c>
     </row>
@@ -4375,16 +4384,16 @@
       <c r="H92" s="9">
         <v>22.480000000000004</v>
       </c>
-      <c r="I92" s="16">
+      <c r="I92" s="18">
         <v>0.22916666666666666</v>
       </c>
-      <c r="J92" s="16">
+      <c r="J92" s="18">
         <v>0.23611111111111113</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K92" s="18">
         <v>0.24652777777777779</v>
       </c>
-      <c r="L92" s="16">
+      <c r="L92" s="18">
         <v>0.25</v>
       </c>
     </row>
@@ -4410,16 +4419,16 @@
       <c r="H93" s="9">
         <v>22</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I93" s="18">
         <v>0.58680555555555558</v>
       </c>
-      <c r="J93" s="16">
+      <c r="J93" s="18">
         <v>0.58680555555555558</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="18">
         <v>0.60416666666666663</v>
       </c>
-      <c r="L93" s="16">
+      <c r="L93" s="18">
         <v>0.60763888888888895</v>
       </c>
     </row>
@@ -4445,16 +4454,16 @@
       <c r="H94" s="9">
         <v>23.1</v>
       </c>
-      <c r="I94" s="16">
+      <c r="I94" s="18">
         <v>0.70138888888888884</v>
       </c>
-      <c r="J94" s="16">
+      <c r="J94" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="18">
         <v>0.72222222222222221</v>
       </c>
-      <c r="L94" s="16">
+      <c r="L94" s="18">
         <v>0.72569444444444453</v>
       </c>
     </row>
@@ -4480,16 +4489,16 @@
       <c r="H95" s="9">
         <v>22.300000000000004</v>
       </c>
-      <c r="I95" s="16">
+      <c r="I95" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="J95" s="16">
+      <c r="J95" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K95" s="18">
         <v>0.72222222222222221</v>
       </c>
-      <c r="L95" s="16">
+      <c r="L95" s="18">
         <v>0.72569444444444453</v>
       </c>
     </row>
@@ -4515,16 +4524,16 @@
       <c r="H96" s="9">
         <v>22.500000000000004</v>
       </c>
-      <c r="I96" s="16">
+      <c r="I96" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="J96" s="16">
+      <c r="J96" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="K96" s="16">
+      <c r="K96" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="L96" s="16">
+      <c r="L96" s="18">
         <v>0.75694444444444453</v>
       </c>
     </row>
@@ -4550,16 +4559,16 @@
       <c r="H97" s="9">
         <v>21.1</v>
       </c>
-      <c r="I97" s="16">
+      <c r="I97" s="18">
         <v>0.78472222222222221</v>
       </c>
-      <c r="J97" s="16">
+      <c r="J97" s="18">
         <v>0.79861111111111116</v>
       </c>
-      <c r="K97" s="16">
+      <c r="K97" s="18">
         <v>0.80902777777777779</v>
       </c>
-      <c r="L97" s="16">
+      <c r="L97" s="18">
         <v>0.8125</v>
       </c>
     </row>
@@ -4585,16 +4594,16 @@
       <c r="H98" s="9">
         <v>22.059999999999995</v>
       </c>
-      <c r="I98" s="16">
+      <c r="I98" s="18">
         <v>0.81597222222222221</v>
       </c>
-      <c r="J98" s="16">
+      <c r="J98" s="18">
         <v>0.81944444444444453</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="18">
         <v>0.83680555555555547</v>
       </c>
-      <c r="L98" s="16">
+      <c r="L98" s="18">
         <v>0.84027777777777779</v>
       </c>
     </row>
@@ -4620,16 +4629,16 @@
       <c r="H99" s="9">
         <v>23.52</v>
       </c>
-      <c r="I99" s="16">
+      <c r="I99" s="18">
         <v>0.47569444444444442</v>
       </c>
-      <c r="J99" s="16">
+      <c r="J99" s="18">
         <v>0.47569444444444442</v>
       </c>
-      <c r="K99" s="16">
+      <c r="K99" s="18">
         <v>0.49305555555555558</v>
       </c>
-      <c r="L99" s="16">
+      <c r="L99" s="18">
         <v>0.5</v>
       </c>
     </row>
@@ -4655,16 +4664,16 @@
       <c r="H100" s="9">
         <v>21.84</v>
       </c>
-      <c r="I100" s="16">
+      <c r="I100" s="18">
         <v>0.91666666666666663</v>
       </c>
-      <c r="J100" s="16">
+      <c r="J100" s="18">
         <v>0.92013888888888884</v>
       </c>
-      <c r="K100" s="16">
+      <c r="K100" s="18">
         <v>0.93402777777777779</v>
       </c>
-      <c r="L100" s="16">
+      <c r="L100" s="18">
         <v>0.9375</v>
       </c>
     </row>
@@ -4690,16 +4699,16 @@
       <c r="H101" s="9">
         <v>23.88</v>
       </c>
-      <c r="I101" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L101" s="16">
+      <c r="I101" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J101" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K101" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L101" s="18">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -4725,16 +4734,16 @@
       <c r="H102" s="9">
         <v>21.92</v>
       </c>
-      <c r="I102" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L102" s="16">
+      <c r="I102" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J102" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K102" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L102" s="18">
         <v>0.75</v>
       </c>
     </row>
@@ -4760,16 +4769,16 @@
       <c r="H103" s="9">
         <v>22.12</v>
       </c>
-      <c r="I103" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L103" s="16">
+      <c r="I103" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J103" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K103" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L103" s="18">
         <v>0.87152777777777779</v>
       </c>
     </row>
@@ -4795,16 +4804,16 @@
       <c r="H104" s="9">
         <v>21.84</v>
       </c>
-      <c r="I104" s="16">
+      <c r="I104" s="18">
         <v>0.98958333333333337</v>
       </c>
-      <c r="J104" s="16">
+      <c r="J104" s="18">
         <v>0.99652777777777779</v>
       </c>
-      <c r="K104" s="16">
+      <c r="K104" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="L104" s="16">
+      <c r="L104" s="18">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -4830,16 +4839,16 @@
       <c r="H105" s="9">
         <v>22.080000000000002</v>
       </c>
-      <c r="I105" s="16">
+      <c r="I105" s="18">
         <v>0.17708333333333334</v>
       </c>
-      <c r="J105" s="16">
+      <c r="J105" s="18">
         <v>0.18055555555555555</v>
       </c>
-      <c r="K105" s="16">
+      <c r="K105" s="18">
         <v>0.19791666666666666</v>
       </c>
-      <c r="L105" s="16">
+      <c r="L105" s="18">
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -4865,16 +4874,16 @@
       <c r="H106" s="9">
         <v>22.18</v>
       </c>
-      <c r="I106" s="16">
+      <c r="I106" s="18">
         <v>0.47916666666666669</v>
       </c>
-      <c r="J106" s="16">
+      <c r="J106" s="18">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K106" s="16">
+      <c r="K106" s="18">
         <v>0.49305555555555558</v>
       </c>
-      <c r="L106" s="16">
+      <c r="L106" s="18">
         <v>0.49652777777777773</v>
       </c>
     </row>
@@ -4900,16 +4909,16 @@
       <c r="H107" s="9">
         <v>22.299999999999997</v>
       </c>
-      <c r="I107" s="16">
+      <c r="I107" s="18">
         <v>0.4826388888888889</v>
       </c>
-      <c r="J107" s="16">
+      <c r="J107" s="18">
         <v>0.49305555555555558</v>
       </c>
-      <c r="K107" s="16">
+      <c r="K107" s="18">
         <v>0.50694444444444442</v>
       </c>
-      <c r="L107" s="16">
+      <c r="L107" s="18">
         <v>0.51041666666666663</v>
       </c>
     </row>
@@ -4935,16 +4944,16 @@
       <c r="H108" s="9">
         <v>21.659999999999997</v>
       </c>
-      <c r="I108" s="16">
+      <c r="I108" s="18">
         <v>0.5</v>
       </c>
-      <c r="J108" s="16">
+      <c r="J108" s="18">
         <v>0.50347222222222221</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K108" s="18">
         <v>0.51736111111111105</v>
       </c>
-      <c r="L108" s="16">
+      <c r="L108" s="18">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -4970,16 +4979,16 @@
       <c r="H109" s="9">
         <v>22.959999999999997</v>
       </c>
-      <c r="I109" s="16">
+      <c r="I109" s="18">
         <v>0.78819444444444453</v>
       </c>
-      <c r="J109" s="16">
+      <c r="J109" s="18">
         <v>0.79513888888888884</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="18">
         <v>0.80555555555555547</v>
       </c>
-      <c r="L109" s="16">
+      <c r="L109" s="18">
         <v>0.80902777777777779</v>
       </c>
     </row>
@@ -5005,16 +5014,16 @@
       <c r="H110" s="9">
         <v>23.340000000000003</v>
       </c>
-      <c r="I110" s="16">
+      <c r="I110" s="18">
         <v>0.79513888888888884</v>
       </c>
-      <c r="J110" s="16">
+      <c r="J110" s="18">
         <v>0.79861111111111116</v>
       </c>
-      <c r="K110" s="16">
+      <c r="K110" s="18">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L110" s="16">
+      <c r="L110" s="18">
         <v>0.82638888888888884</v>
       </c>
     </row>
@@ -5040,16 +5049,16 @@
       <c r="H111" s="9">
         <v>22.34</v>
       </c>
-      <c r="I111" s="16">
+      <c r="I111" s="18">
         <v>0.16319444444444445</v>
       </c>
-      <c r="J111" s="16">
+      <c r="J111" s="18">
         <v>0.17013888888888887</v>
       </c>
-      <c r="K111" s="16">
+      <c r="K111" s="18">
         <v>0.18402777777777779</v>
       </c>
-      <c r="L111" s="16">
+      <c r="L111" s="18">
         <v>0.1875</v>
       </c>
     </row>
@@ -5075,16 +5084,16 @@
       <c r="H112" s="9">
         <v>23.72</v>
       </c>
-      <c r="I112" s="16">
+      <c r="I112" s="18">
         <v>0.69791666666666663</v>
       </c>
-      <c r="J112" s="16">
+      <c r="J112" s="18">
         <v>0.70138888888888884</v>
       </c>
-      <c r="K112" s="16">
+      <c r="K112" s="18">
         <v>0.71875</v>
       </c>
-      <c r="L112" s="16">
+      <c r="L112" s="18">
         <v>0.72569444444444453</v>
       </c>
     </row>
@@ -5110,16 +5119,16 @@
       <c r="H113" s="9">
         <v>20.74</v>
       </c>
-      <c r="I113" s="16">
+      <c r="I113" s="18">
         <v>0.81944444444444453</v>
       </c>
-      <c r="J113" s="16">
+      <c r="J113" s="18">
         <v>0.82291666666666663</v>
       </c>
-      <c r="K113" s="16">
+      <c r="K113" s="18">
         <v>0.84027777777777779</v>
       </c>
-      <c r="L113" s="16">
+      <c r="L113" s="18">
         <v>0.84375</v>
       </c>
     </row>
@@ -5145,16 +5154,16 @@
       <c r="H114" s="9">
         <v>22.18</v>
       </c>
-      <c r="I114" s="16">
+      <c r="I114" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J114" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K114" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L114" s="6" t="s">
+      <c r="J114" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L114" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5180,16 +5189,16 @@
       <c r="H115" s="9">
         <v>20.56</v>
       </c>
-      <c r="I115" s="16">
+      <c r="I115" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J115" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L115" s="6" t="s">
+      <c r="J115" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L115" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5215,16 +5224,16 @@
       <c r="H116" s="9">
         <v>21.76</v>
       </c>
-      <c r="I116" s="16">
+      <c r="I116" s="18">
         <v>0.98263888888888884</v>
       </c>
-      <c r="J116" s="16">
+      <c r="J116" s="18">
         <v>0.99652777777777779</v>
       </c>
-      <c r="K116" s="16">
+      <c r="K116" s="18">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="L116" s="16">
+      <c r="L116" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -5250,16 +5259,16 @@
       <c r="H117" s="9">
         <v>22.419999999999998</v>
       </c>
-      <c r="I117" s="16">
+      <c r="I117" s="18">
         <v>0.98611111111111116</v>
       </c>
-      <c r="J117" s="16">
+      <c r="J117" s="18">
         <v>0.99652777777777779</v>
       </c>
-      <c r="K117" s="16">
+      <c r="K117" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="L117" s="16">
+      <c r="L117" s="18">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -5285,16 +5294,16 @@
       <c r="H118" s="9">
         <v>21.639999999999997</v>
       </c>
-      <c r="I118" s="16">
+      <c r="I118" s="18">
         <v>0.17013888888888887</v>
       </c>
-      <c r="J118" s="16">
+      <c r="J118" s="18">
         <v>0.17361111111111113</v>
       </c>
-      <c r="K118" s="16">
+      <c r="K118" s="18">
         <v>0.1875</v>
       </c>
-      <c r="L118" s="16">
+      <c r="L118" s="18">
         <v>0.19097222222222221</v>
       </c>
     </row>
@@ -5320,16 +5329,16 @@
       <c r="H119" s="9">
         <v>23.24</v>
       </c>
-      <c r="I119" s="16">
+      <c r="I119" s="18">
         <v>0.34375</v>
       </c>
-      <c r="J119" s="16">
+      <c r="J119" s="18">
         <v>0.34722222222222227</v>
       </c>
-      <c r="K119" s="16">
+      <c r="K119" s="18">
         <v>0.3576388888888889</v>
       </c>
-      <c r="L119" s="16">
+      <c r="L119" s="18">
         <v>0.3611111111111111</v>
       </c>
     </row>
@@ -5355,16 +5364,16 @@
       <c r="H120" s="9">
         <v>23.58</v>
       </c>
-      <c r="I120" s="16">
+      <c r="I120" s="18">
         <v>0.4513888888888889</v>
       </c>
-      <c r="J120" s="16">
+      <c r="J120" s="18">
         <v>0.4513888888888889</v>
       </c>
-      <c r="K120" s="16">
+      <c r="K120" s="18">
         <v>0.46527777777777773</v>
       </c>
-      <c r="L120" s="16">
+      <c r="L120" s="18">
         <v>0.47222222222222227</v>
       </c>
     </row>
@@ -5390,16 +5399,16 @@
       <c r="H121" s="9">
         <v>21.92</v>
       </c>
-      <c r="I121" s="16">
+      <c r="I121" s="18">
         <v>0.46180555555555558</v>
       </c>
-      <c r="J121" s="16">
+      <c r="J121" s="18">
         <v>0.46527777777777773</v>
       </c>
-      <c r="K121" s="16">
+      <c r="K121" s="18">
         <v>0.47916666666666669</v>
       </c>
-      <c r="L121" s="16">
+      <c r="L121" s="18">
         <v>0.4826388888888889</v>
       </c>
     </row>
@@ -5425,16 +5434,16 @@
       <c r="H122" s="9">
         <v>22.12</v>
       </c>
-      <c r="I122" s="16">
+      <c r="I122" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J122" s="16">
+      <c r="J122" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K122" s="16">
+      <c r="K122" s="18">
         <v>0.72222222222222221</v>
       </c>
-      <c r="L122" s="16">
+      <c r="L122" s="18">
         <v>0.72569444444444453</v>
       </c>
     </row>
@@ -5460,16 +5469,16 @@
       <c r="H123" s="9">
         <v>23.24</v>
       </c>
-      <c r="I123" s="16">
+      <c r="I123" s="18">
         <v>0.73263888888888884</v>
       </c>
-      <c r="J123" s="16">
+      <c r="J123" s="18">
         <v>0.73263888888888884</v>
       </c>
-      <c r="K123" s="16">
+      <c r="K123" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="L123" s="16">
+      <c r="L123" s="18">
         <v>0.75</v>
       </c>
     </row>
@@ -5495,16 +5504,16 @@
       <c r="H124" s="9">
         <v>21.84</v>
       </c>
-      <c r="I124" s="16">
+      <c r="I124" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="J124" s="16">
+      <c r="J124" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="K124" s="16">
+      <c r="K124" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="L124" s="16">
+      <c r="L124" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -5530,16 +5539,16 @@
       <c r="H125" s="9">
         <v>23.1</v>
       </c>
-      <c r="I125" s="16">
+      <c r="I125" s="18">
         <v>0.79861111111111116</v>
       </c>
-      <c r="J125" s="16">
+      <c r="J125" s="18">
         <v>0.80208333333333337</v>
       </c>
-      <c r="K125" s="16">
+      <c r="K125" s="18">
         <v>0.81597222222222221</v>
       </c>
-      <c r="L125" s="16">
+      <c r="L125" s="18">
         <v>0.81944444444444453</v>
       </c>
     </row>
@@ -5565,16 +5574,16 @@
       <c r="H126" s="9">
         <v>21.339999999999996</v>
       </c>
-      <c r="I126" s="16">
+      <c r="I126" s="18">
         <v>0.93402777777777779</v>
       </c>
-      <c r="J126" s="16">
+      <c r="J126" s="18">
         <v>0.9375</v>
       </c>
-      <c r="K126" s="16">
+      <c r="K126" s="18">
         <v>0.94791666666666663</v>
       </c>
-      <c r="L126" s="16">
+      <c r="L126" s="18">
         <v>0.95138888888888884</v>
       </c>
     </row>
@@ -5600,16 +5609,16 @@
       <c r="H127" s="9">
         <v>16.52</v>
       </c>
-      <c r="I127" s="16">
+      <c r="I127" s="18">
         <v>0.77083333333333337</v>
       </c>
-      <c r="J127" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K127" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L127" s="6" t="s">
+      <c r="J127" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K127" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L127" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5635,16 +5644,16 @@
       <c r="H128" s="9">
         <v>22.939999999999998</v>
       </c>
-      <c r="I128" s="16">
+      <c r="I128" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J128" s="16">
+      <c r="J128" s="18">
         <v>0.63888888888888895</v>
       </c>
-      <c r="K128" s="16">
+      <c r="K128" s="18">
         <v>0.65625</v>
       </c>
-      <c r="L128" s="16">
+      <c r="L128" s="18">
         <v>0.65972222222222221</v>
       </c>
     </row>
@@ -5670,16 +5679,16 @@
       <c r="H129" s="9">
         <v>21.06</v>
       </c>
-      <c r="I129" s="16">
+      <c r="I129" s="18">
         <v>0.80555555555555547</v>
       </c>
-      <c r="J129" s="16">
+      <c r="J129" s="18">
         <v>0.80902777777777779</v>
       </c>
-      <c r="K129" s="16">
+      <c r="K129" s="18">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L129" s="16">
+      <c r="L129" s="18">
         <v>0.82986111111111116</v>
       </c>
     </row>
@@ -5705,16 +5714,16 @@
       <c r="H130" s="9">
         <v>22.08</v>
       </c>
-      <c r="I130" s="16">
+      <c r="I130" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J130" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K130" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L130" s="6" t="s">
+      <c r="J130" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K130" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L130" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5740,16 +5749,16 @@
       <c r="H131" s="9">
         <v>23.8</v>
       </c>
-      <c r="I131" s="16">
+      <c r="I131" s="18">
         <v>0.64583333333333337</v>
       </c>
-      <c r="J131" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L131" s="6" t="s">
+      <c r="J131" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K131" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L131" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5775,16 +5784,16 @@
       <c r="H132" s="9">
         <v>21.840000000000003</v>
       </c>
-      <c r="I132" s="16">
+      <c r="I132" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="J132" s="16">
+      <c r="J132" s="18">
         <v>0.10416666666666667</v>
       </c>
-      <c r="K132" s="16">
+      <c r="K132" s="18">
         <v>0.11458333333333333</v>
       </c>
-      <c r="L132" s="16">
+      <c r="L132" s="18">
         <v>0.11805555555555557</v>
       </c>
     </row>
@@ -5810,16 +5819,16 @@
       <c r="H133" s="9">
         <v>21.94</v>
       </c>
-      <c r="I133" s="16">
+      <c r="I133" s="18">
         <v>0.1388888888888889</v>
       </c>
-      <c r="J133" s="16">
+      <c r="J133" s="18">
         <v>0.1423611111111111</v>
       </c>
-      <c r="K133" s="16">
+      <c r="K133" s="18">
         <v>0.15277777777777776</v>
       </c>
-      <c r="L133" s="16">
+      <c r="L133" s="18">
         <v>0.15625</v>
       </c>
     </row>
@@ -5845,16 +5854,16 @@
       <c r="H134" s="9">
         <v>23.660000000000004</v>
       </c>
-      <c r="I134" s="16">
+      <c r="I134" s="18">
         <v>0.4236111111111111</v>
       </c>
-      <c r="J134" s="16">
+      <c r="J134" s="18">
         <v>0.4236111111111111</v>
       </c>
-      <c r="K134" s="16">
+      <c r="K134" s="18">
         <v>0.4375</v>
       </c>
-      <c r="L134" s="16">
+      <c r="L134" s="18">
         <v>0.44097222222222227</v>
       </c>
     </row>
@@ -5880,16 +5889,16 @@
       <c r="H135" s="9">
         <v>22.86</v>
       </c>
-      <c r="I135" s="16">
+      <c r="I135" s="18">
         <v>0.59027777777777779</v>
       </c>
-      <c r="J135" s="16">
+      <c r="J135" s="18">
         <v>0.59027777777777779</v>
       </c>
-      <c r="K135" s="16">
+      <c r="K135" s="18">
         <v>0.60416666666666663</v>
       </c>
-      <c r="L135" s="16">
+      <c r="L135" s="18">
         <v>0.61111111111111105</v>
       </c>
     </row>
@@ -5915,16 +5924,16 @@
       <c r="H136" s="9">
         <v>21.779999999999998</v>
       </c>
-      <c r="I136" s="16">
+      <c r="I136" s="18">
         <v>0.68055555555555547</v>
       </c>
-      <c r="J136" s="16">
+      <c r="J136" s="18">
         <v>0.6875</v>
       </c>
-      <c r="K136" s="16">
+      <c r="K136" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L136" s="16">
+      <c r="L136" s="18">
         <v>0.70833333333333337</v>
       </c>
     </row>
@@ -5950,16 +5959,16 @@
       <c r="H137" s="9">
         <v>22.119999999999997</v>
       </c>
-      <c r="I137" s="16">
+      <c r="I137" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="J137" s="16">
+      <c r="J137" s="18">
         <v>0.75</v>
       </c>
-      <c r="K137" s="16">
+      <c r="K137" s="18">
         <v>0.76388888888888884</v>
       </c>
-      <c r="L137" s="16">
+      <c r="L137" s="18">
         <v>0.77083333333333337</v>
       </c>
     </row>
@@ -5985,16 +5994,16 @@
       <c r="H138" s="9">
         <v>21.36</v>
       </c>
-      <c r="I138" s="16">
+      <c r="I138" s="18">
         <v>0.8125</v>
       </c>
-      <c r="J138" s="16">
+      <c r="J138" s="18">
         <v>0.81597222222222221</v>
       </c>
-      <c r="K138" s="16">
+      <c r="K138" s="18">
         <v>0.82638888888888884</v>
       </c>
-      <c r="L138" s="16">
+      <c r="L138" s="18">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -6020,16 +6029,16 @@
       <c r="H139" s="9">
         <v>21.94</v>
       </c>
-      <c r="I139" s="16">
+      <c r="I139" s="18">
         <v>0.9375</v>
       </c>
-      <c r="J139" s="16">
+      <c r="J139" s="18">
         <v>0.94097222222222221</v>
       </c>
-      <c r="K139" s="16">
+      <c r="K139" s="18">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L139" s="16">
+      <c r="L139" s="18">
         <v>0.95486111111111116</v>
       </c>
     </row>
@@ -6055,16 +6064,16 @@
       <c r="H140" s="9">
         <v>22.88</v>
       </c>
-      <c r="I140" s="16">
+      <c r="I140" s="18">
         <v>0.94097222222222221</v>
       </c>
-      <c r="J140" s="16">
+      <c r="J140" s="18">
         <v>0.94444444444444453</v>
       </c>
-      <c r="K140" s="16">
+      <c r="K140" s="18">
         <v>0.96527777777777779</v>
       </c>
-      <c r="L140" s="16">
+      <c r="L140" s="18">
         <v>0.96875</v>
       </c>
     </row>
@@ -6090,16 +6099,16 @@
       <c r="H141" s="9">
         <v>23.099999999999998</v>
       </c>
-      <c r="I141" s="16">
+      <c r="I141" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J141" s="16">
+      <c r="J141" s="18">
         <v>0.71180555555555547</v>
       </c>
-      <c r="K141" s="16">
+      <c r="K141" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="L141" s="16">
+      <c r="L141" s="18">
         <v>0.73263888888888884</v>
       </c>
     </row>
@@ -6125,16 +6134,16 @@
       <c r="H142" s="9">
         <v>21.68</v>
       </c>
-      <c r="I142" s="16">
+      <c r="I142" s="18">
         <v>0.60416666666666663</v>
       </c>
-      <c r="J142" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K142" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L142" s="6" t="s">
+      <c r="J142" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K142" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L142" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6160,16 +6169,16 @@
       <c r="H143" s="9">
         <v>21.88</v>
       </c>
-      <c r="I143" s="16">
+      <c r="I143" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J143" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K143" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L143" s="6" t="s">
+      <c r="J143" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K143" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L143" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6195,16 +6204,16 @@
       <c r="H144" s="9">
         <v>23.439999999999998</v>
       </c>
-      <c r="I144" s="16">
+      <c r="I144" s="18">
         <v>0.40277777777777773</v>
       </c>
-      <c r="J144" s="16">
+      <c r="J144" s="18">
         <v>0.40277777777777773</v>
       </c>
-      <c r="K144" s="16">
+      <c r="K144" s="18">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L144" s="16">
+      <c r="L144" s="18">
         <v>0.4236111111111111</v>
       </c>
     </row>
@@ -6230,16 +6239,16 @@
       <c r="H145" s="9">
         <v>22.52</v>
       </c>
-      <c r="I145" s="16">
+      <c r="I145" s="18">
         <v>0.67708333333333337</v>
       </c>
-      <c r="J145" s="16">
+      <c r="J145" s="18">
         <v>0.68055555555555547</v>
       </c>
-      <c r="K145" s="16">
+      <c r="K145" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="L145" s="16">
+      <c r="L145" s="18">
         <v>0.70138888888888884</v>
       </c>
     </row>
@@ -6265,16 +6274,16 @@
       <c r="H146" s="9">
         <v>22.120000000000005</v>
       </c>
-      <c r="I146" s="16">
+      <c r="I146" s="18">
         <v>0.68402777777777779</v>
       </c>
-      <c r="J146" s="16">
+      <c r="J146" s="18">
         <v>0.68402777777777779</v>
       </c>
-      <c r="K146" s="16">
+      <c r="K146" s="18">
         <v>0.70138888888888884</v>
       </c>
-      <c r="L146" s="16">
+      <c r="L146" s="18">
         <v>0.70486111111111116</v>
       </c>
     </row>
@@ -6300,16 +6309,16 @@
       <c r="H147" s="9">
         <v>23.24</v>
       </c>
-      <c r="I147" s="16">
+      <c r="I147" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="J147" s="16">
+      <c r="J147" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K147" s="16">
+      <c r="K147" s="18">
         <v>0.72222222222222221</v>
       </c>
-      <c r="L147" s="16">
+      <c r="L147" s="18">
         <v>0.73263888888888884</v>
       </c>
     </row>
@@ -6335,16 +6344,16 @@
       <c r="H148" s="9">
         <v>23.360000000000003</v>
       </c>
-      <c r="I148" s="16">
+      <c r="I148" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="J148" s="16">
+      <c r="J148" s="18">
         <v>0.74305555555555547</v>
       </c>
-      <c r="K148" s="16">
+      <c r="K148" s="18">
         <v>0.75694444444444453</v>
       </c>
-      <c r="L148" s="16">
+      <c r="L148" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -6370,16 +6379,16 @@
       <c r="H149" s="9">
         <v>22.639999999999997</v>
       </c>
-      <c r="I149" s="16">
+      <c r="I149" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="J149" s="16">
+      <c r="J149" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="K149" s="16">
+      <c r="K149" s="18">
         <v>0.76041666666666663</v>
       </c>
-      <c r="L149" s="16">
+      <c r="L149" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -6405,16 +6414,16 @@
       <c r="H150" s="9">
         <v>22.74</v>
       </c>
-      <c r="I150" s="16">
+      <c r="I150" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="J150" s="16">
+      <c r="J150" s="18">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="K150" s="16">
+      <c r="K150" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L150" s="16">
+      <c r="L150" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -6440,16 +6449,16 @@
       <c r="H151" s="9">
         <v>23.099999999999998</v>
       </c>
-      <c r="I151" s="16">
+      <c r="I151" s="18">
         <v>0.18055555555555555</v>
       </c>
-      <c r="J151" s="16">
+      <c r="J151" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K151" s="16">
+      <c r="K151" s="18">
         <v>0.19791666666666666</v>
       </c>
-      <c r="L151" s="16">
+      <c r="L151" s="18">
         <v>0.20138888888888887</v>
       </c>
     </row>
@@ -6475,16 +6484,16 @@
       <c r="H152" s="9">
         <v>18.880000000000003</v>
       </c>
-      <c r="I152" s="16">
+      <c r="I152" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="J152" s="16">
+      <c r="J152" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K152" s="16">
+      <c r="K152" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="L152" s="16">
+      <c r="L152" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
@@ -6510,16 +6519,16 @@
       <c r="H153" s="9">
         <v>21.900000000000002</v>
       </c>
-      <c r="I153" s="16">
+      <c r="I153" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="J153" s="16">
+      <c r="J153" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="K153" s="16">
+      <c r="K153" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="L153" s="16">
+      <c r="L153" s="18">
         <v>0.69791666666666663</v>
       </c>
     </row>
@@ -6545,16 +6554,16 @@
       <c r="H154" s="9">
         <v>22.64</v>
       </c>
-      <c r="I154" s="16">
+      <c r="I154" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J154" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K154" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L154" s="6" t="s">
+      <c r="J154" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K154" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L154" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6580,16 +6589,16 @@
       <c r="H155" s="9">
         <v>21.62</v>
       </c>
-      <c r="I155" s="16">
+      <c r="I155" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J155" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K155" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L155" s="6" t="s">
+      <c r="J155" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K155" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L155" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6615,16 +6624,16 @@
       <c r="H156" s="9">
         <v>21.78</v>
       </c>
-      <c r="I156" s="16">
+      <c r="I156" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J156" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K156" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L156" s="6" t="s">
+      <c r="J156" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K156" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L156" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6650,16 +6659,16 @@
       <c r="H157" s="9">
         <v>21.2</v>
       </c>
-      <c r="I157" s="16">
+      <c r="I157" s="18">
         <v>0.97222222222222221</v>
       </c>
-      <c r="J157" s="16">
+      <c r="J157" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K157" s="16">
+      <c r="K157" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L157" s="16">
+      <c r="L157" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
@@ -6685,16 +6694,16 @@
       <c r="H158" s="9">
         <v>21.28</v>
       </c>
-      <c r="I158" s="16">
+      <c r="I158" s="18">
         <v>0.98611111111111116</v>
       </c>
-      <c r="J158" s="16">
+      <c r="J158" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K158" s="16">
+      <c r="K158" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L158" s="16">
+      <c r="L158" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -6720,16 +6729,16 @@
       <c r="H159" s="9">
         <v>22.060000000000002</v>
       </c>
-      <c r="I159" s="16">
+      <c r="I159" s="18">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="J159" s="16">
+      <c r="J159" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K159" s="16">
+      <c r="K159" s="18">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="L159" s="16">
+      <c r="L159" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -6755,16 +6764,16 @@
       <c r="H160" s="9">
         <v>22.44</v>
       </c>
-      <c r="I160" s="16">
+      <c r="I160" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="J160" s="16">
+      <c r="J160" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K160" s="16">
+      <c r="K160" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L160" s="16">
+      <c r="L160" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -6790,16 +6799,16 @@
       <c r="H161" s="9">
         <v>21.46</v>
       </c>
-      <c r="I161" s="16">
+      <c r="I161" s="18">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="J161" s="16">
+      <c r="J161" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K161" s="16">
+      <c r="K161" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L161" s="16">
+      <c r="L161" s="18">
         <v>0.10069444444444443</v>
       </c>
     </row>
@@ -6825,16 +6834,16 @@
       <c r="H162" s="9">
         <v>22.360000000000003</v>
       </c>
-      <c r="I162" s="16">
+      <c r="I162" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J162" s="16">
+      <c r="J162" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K162" s="16">
+      <c r="K162" s="18">
         <v>0.47222222222222227</v>
       </c>
-      <c r="L162" s="16">
+      <c r="L162" s="18">
         <v>0.47569444444444442</v>
       </c>
     </row>
@@ -6860,16 +6869,16 @@
       <c r="H163" s="9">
         <v>22.64</v>
       </c>
-      <c r="I163" s="16">
+      <c r="I163" s="18">
         <v>0.66319444444444442</v>
       </c>
-      <c r="J163" s="16">
+      <c r="J163" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="K163" s="16">
+      <c r="K163" s="18">
         <v>0.6875</v>
       </c>
-      <c r="L163" s="16">
+      <c r="L163" s="18">
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -6895,16 +6904,16 @@
       <c r="H164" s="9">
         <v>21.64</v>
       </c>
-      <c r="I164" s="16">
+      <c r="I164" s="18">
         <v>0.67708333333333337</v>
       </c>
-      <c r="J164" s="16">
+      <c r="J164" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K164" s="16">
+      <c r="K164" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L164" s="16">
+      <c r="L164" s="18">
         <v>0.71180555555555547</v>
       </c>
     </row>
@@ -6930,16 +6939,16 @@
       <c r="H165" s="9">
         <v>22.139999999999997</v>
       </c>
-      <c r="I165" s="16">
+      <c r="I165" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J165" s="16">
+      <c r="J165" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="K165" s="16">
+      <c r="K165" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="L165" s="16">
+      <c r="L165" s="18">
         <v>0.75347222222222221</v>
       </c>
     </row>
@@ -6965,16 +6974,16 @@
       <c r="H166" s="9">
         <v>21.700000000000003</v>
       </c>
-      <c r="I166" s="16">
+      <c r="I166" s="18">
         <v>0.75</v>
       </c>
-      <c r="J166" s="16">
+      <c r="J166" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="K166" s="16">
+      <c r="K166" s="18">
         <v>0.76388888888888884</v>
       </c>
-      <c r="L166" s="16">
+      <c r="L166" s="18">
         <v>0.76736111111111116</v>
       </c>
     </row>
@@ -7000,16 +7009,16 @@
       <c r="H167" s="10">
         <v>21.66</v>
       </c>
-      <c r="I167" s="17">
+      <c r="I167" s="19">
         <v>0.93402777777777779</v>
       </c>
-      <c r="J167" s="17">
+      <c r="J167" s="19">
         <v>0.9375</v>
       </c>
-      <c r="K167" s="17">
+      <c r="K167" s="19">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L167" s="17">
+      <c r="L167" s="19">
         <v>0.95486111111111116</v>
       </c>
     </row>
@@ -7035,16 +7044,16 @@
       <c r="H168" s="9">
         <v>18.880000000000003</v>
       </c>
-      <c r="I168" s="16">
+      <c r="I168" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="J168" s="16">
+      <c r="J168" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K168" s="16">
+      <c r="K168" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="L168" s="16">
+      <c r="L168" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
@@ -7070,16 +7079,16 @@
       <c r="H169" s="9">
         <v>21.900000000000002</v>
       </c>
-      <c r="I169" s="16">
+      <c r="I169" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="J169" s="16">
+      <c r="J169" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="K169" s="16">
+      <c r="K169" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="L169" s="16">
+      <c r="L169" s="18">
         <v>0.69791666666666663</v>
       </c>
     </row>
@@ -7105,16 +7114,16 @@
       <c r="H170" s="9">
         <v>22.64</v>
       </c>
-      <c r="I170" s="16">
+      <c r="I170" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J170" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K170" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L170" s="6" t="s">
+      <c r="J170" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K170" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L170" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7140,16 +7149,16 @@
       <c r="H171" s="9">
         <v>21.62</v>
       </c>
-      <c r="I171" s="16">
+      <c r="I171" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J171" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K171" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L171" s="6" t="s">
+      <c r="J171" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K171" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L171" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7175,16 +7184,16 @@
       <c r="H172" s="9">
         <v>21.78</v>
       </c>
-      <c r="I172" s="16">
+      <c r="I172" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J172" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K172" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L172" s="6" t="s">
+      <c r="J172" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K172" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L172" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7210,16 +7219,16 @@
       <c r="H173" s="9">
         <v>21.2</v>
       </c>
-      <c r="I173" s="16">
+      <c r="I173" s="18">
         <v>0.97222222222222221</v>
       </c>
-      <c r="J173" s="16">
+      <c r="J173" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K173" s="16">
+      <c r="K173" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L173" s="16">
+      <c r="L173" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
@@ -7245,16 +7254,16 @@
       <c r="H174" s="9">
         <v>21.28</v>
       </c>
-      <c r="I174" s="16">
+      <c r="I174" s="18">
         <v>0.98611111111111116</v>
       </c>
-      <c r="J174" s="16">
+      <c r="J174" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K174" s="16">
+      <c r="K174" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L174" s="16">
+      <c r="L174" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -7280,16 +7289,16 @@
       <c r="H175" s="9">
         <v>22.060000000000002</v>
       </c>
-      <c r="I175" s="16">
+      <c r="I175" s="18">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="J175" s="16">
+      <c r="J175" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K175" s="16">
+      <c r="K175" s="18">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="L175" s="16">
+      <c r="L175" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -7315,16 +7324,16 @@
       <c r="H176" s="9">
         <v>22.44</v>
       </c>
-      <c r="I176" s="16">
+      <c r="I176" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="J176" s="16">
+      <c r="J176" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K176" s="16">
+      <c r="K176" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L176" s="16">
+      <c r="L176" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -7350,16 +7359,16 @@
       <c r="H177" s="9">
         <v>21.46</v>
       </c>
-      <c r="I177" s="16">
+      <c r="I177" s="18">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="J177" s="16">
+      <c r="J177" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K177" s="16">
+      <c r="K177" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L177" s="16">
+      <c r="L177" s="18">
         <v>0.10069444444444443</v>
       </c>
     </row>
@@ -7385,16 +7394,16 @@
       <c r="H178" s="9">
         <v>22.360000000000003</v>
       </c>
-      <c r="I178" s="16">
+      <c r="I178" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J178" s="16">
+      <c r="J178" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K178" s="16">
+      <c r="K178" s="18">
         <v>0.47222222222222227</v>
       </c>
-      <c r="L178" s="16">
+      <c r="L178" s="18">
         <v>0.47569444444444442</v>
       </c>
     </row>
@@ -7420,16 +7429,16 @@
       <c r="H179" s="9">
         <v>22.64</v>
       </c>
-      <c r="I179" s="16">
+      <c r="I179" s="18">
         <v>0.66319444444444442</v>
       </c>
-      <c r="J179" s="16">
+      <c r="J179" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="K179" s="16">
+      <c r="K179" s="18">
         <v>0.6875</v>
       </c>
-      <c r="L179" s="16">
+      <c r="L179" s="18">
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -7455,16 +7464,16 @@
       <c r="H180" s="9">
         <v>21.64</v>
       </c>
-      <c r="I180" s="16">
+      <c r="I180" s="18">
         <v>0.67708333333333337</v>
       </c>
-      <c r="J180" s="16">
+      <c r="J180" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K180" s="16">
+      <c r="K180" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L180" s="16">
+      <c r="L180" s="18">
         <v>0.71180555555555547</v>
       </c>
     </row>
@@ -7490,16 +7499,16 @@
       <c r="H181" s="9">
         <v>22.139999999999997</v>
       </c>
-      <c r="I181" s="16">
+      <c r="I181" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J181" s="16">
+      <c r="J181" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="K181" s="16">
+      <c r="K181" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="L181" s="16">
+      <c r="L181" s="18">
         <v>0.75347222222222221</v>
       </c>
     </row>
@@ -7525,16 +7534,16 @@
       <c r="H182" s="9">
         <v>21.700000000000003</v>
       </c>
-      <c r="I182" s="16">
+      <c r="I182" s="18">
         <v>0.75</v>
       </c>
-      <c r="J182" s="16">
+      <c r="J182" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="K182" s="16">
+      <c r="K182" s="18">
         <v>0.76388888888888884</v>
       </c>
-      <c r="L182" s="16">
+      <c r="L182" s="18">
         <v>0.76736111111111116</v>
       </c>
     </row>
@@ -7560,16 +7569,16 @@
       <c r="H183" s="10">
         <v>21.66</v>
       </c>
-      <c r="I183" s="17">
+      <c r="I183" s="19">
         <v>0.93402777777777779</v>
       </c>
-      <c r="J183" s="17">
+      <c r="J183" s="19">
         <v>0.9375</v>
       </c>
-      <c r="K183" s="17">
+      <c r="K183" s="19">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L183" s="17">
+      <c r="L183" s="19">
         <v>0.95486111111111116</v>
       </c>
     </row>
@@ -7595,16 +7604,16 @@
       <c r="H184" s="9">
         <v>18.880000000000003</v>
       </c>
-      <c r="I184" s="16">
+      <c r="I184" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="J184" s="16">
+      <c r="J184" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K184" s="16">
+      <c r="K184" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="L184" s="16">
+      <c r="L184" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
@@ -7630,16 +7639,16 @@
       <c r="H185" s="9">
         <v>21.900000000000002</v>
       </c>
-      <c r="I185" s="16">
+      <c r="I185" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="J185" s="16">
+      <c r="J185" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="K185" s="16">
+      <c r="K185" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="L185" s="16">
+      <c r="L185" s="18">
         <v>0.69791666666666663</v>
       </c>
     </row>
@@ -7665,16 +7674,16 @@
       <c r="H186" s="9">
         <v>22.64</v>
       </c>
-      <c r="I186" s="16">
+      <c r="I186" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J186" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K186" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L186" s="6" t="s">
+      <c r="J186" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K186" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L186" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7700,16 +7709,16 @@
       <c r="H187" s="9">
         <v>21.62</v>
       </c>
-      <c r="I187" s="16">
+      <c r="I187" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J187" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K187" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L187" s="6" t="s">
+      <c r="J187" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K187" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L187" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7735,16 +7744,16 @@
       <c r="H188" s="9">
         <v>21.78</v>
       </c>
-      <c r="I188" s="16">
+      <c r="I188" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J188" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K188" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L188" s="6" t="s">
+      <c r="J188" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K188" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L188" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7770,16 +7779,16 @@
       <c r="H189" s="9">
         <v>21.2</v>
       </c>
-      <c r="I189" s="16">
+      <c r="I189" s="18">
         <v>0.97222222222222221</v>
       </c>
-      <c r="J189" s="16">
+      <c r="J189" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K189" s="16">
+      <c r="K189" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L189" s="16">
+      <c r="L189" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
@@ -7805,16 +7814,16 @@
       <c r="H190" s="9">
         <v>21.28</v>
       </c>
-      <c r="I190" s="16">
+      <c r="I190" s="18">
         <v>0.98611111111111116</v>
       </c>
-      <c r="J190" s="16">
+      <c r="J190" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K190" s="16">
+      <c r="K190" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L190" s="16">
+      <c r="L190" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -7840,16 +7849,16 @@
       <c r="H191" s="9">
         <v>22.060000000000002</v>
       </c>
-      <c r="I191" s="16">
+      <c r="I191" s="18">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="J191" s="16">
+      <c r="J191" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K191" s="16">
+      <c r="K191" s="18">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="L191" s="16">
+      <c r="L191" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -7875,16 +7884,16 @@
       <c r="H192" s="9">
         <v>22.44</v>
       </c>
-      <c r="I192" s="16">
+      <c r="I192" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="J192" s="16">
+      <c r="J192" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K192" s="16">
+      <c r="K192" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L192" s="16">
+      <c r="L192" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -7910,16 +7919,16 @@
       <c r="H193" s="9">
         <v>21.46</v>
       </c>
-      <c r="I193" s="16">
+      <c r="I193" s="18">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="J193" s="16">
+      <c r="J193" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K193" s="16">
+      <c r="K193" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L193" s="16">
+      <c r="L193" s="18">
         <v>0.10069444444444443</v>
       </c>
     </row>
@@ -7945,16 +7954,16 @@
       <c r="H194" s="9">
         <v>22.360000000000003</v>
       </c>
-      <c r="I194" s="16">
+      <c r="I194" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J194" s="16">
+      <c r="J194" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K194" s="16">
+      <c r="K194" s="18">
         <v>0.47222222222222227</v>
       </c>
-      <c r="L194" s="16">
+      <c r="L194" s="18">
         <v>0.47569444444444442</v>
       </c>
     </row>
@@ -7980,16 +7989,16 @@
       <c r="H195" s="9">
         <v>22.64</v>
       </c>
-      <c r="I195" s="16">
+      <c r="I195" s="18">
         <v>0.66319444444444442</v>
       </c>
-      <c r="J195" s="16">
+      <c r="J195" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="K195" s="16">
+      <c r="K195" s="18">
         <v>0.6875</v>
       </c>
-      <c r="L195" s="16">
+      <c r="L195" s="18">
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -8015,16 +8024,16 @@
       <c r="H196" s="9">
         <v>21.64</v>
       </c>
-      <c r="I196" s="16">
+      <c r="I196" s="18">
         <v>0.67708333333333337</v>
       </c>
-      <c r="J196" s="16">
+      <c r="J196" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K196" s="16">
+      <c r="K196" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L196" s="16">
+      <c r="L196" s="18">
         <v>0.71180555555555547</v>
       </c>
     </row>
@@ -8050,16 +8059,16 @@
       <c r="H197" s="9">
         <v>22.139999999999997</v>
       </c>
-      <c r="I197" s="16">
+      <c r="I197" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J197" s="16">
+      <c r="J197" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="K197" s="16">
+      <c r="K197" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="L197" s="16">
+      <c r="L197" s="18">
         <v>0.75347222222222221</v>
       </c>
     </row>
@@ -8085,16 +8094,16 @@
       <c r="H198" s="9">
         <v>21.700000000000003</v>
       </c>
-      <c r="I198" s="16">
+      <c r="I198" s="18">
         <v>0.75</v>
       </c>
-      <c r="J198" s="16">
+      <c r="J198" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="K198" s="16">
+      <c r="K198" s="18">
         <v>0.76388888888888884</v>
       </c>
-      <c r="L198" s="16">
+      <c r="L198" s="18">
         <v>0.76736111111111116</v>
       </c>
     </row>
@@ -8120,16 +8129,16 @@
       <c r="H199" s="10">
         <v>21.66</v>
       </c>
-      <c r="I199" s="17">
+      <c r="I199" s="19">
         <v>0.93402777777777779</v>
       </c>
-      <c r="J199" s="17">
+      <c r="J199" s="19">
         <v>0.9375</v>
       </c>
-      <c r="K199" s="17">
+      <c r="K199" s="19">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L199" s="17">
+      <c r="L199" s="19">
         <v>0.95486111111111116</v>
       </c>
     </row>
@@ -8155,16 +8164,16 @@
       <c r="H200" s="9">
         <v>18.880000000000003</v>
       </c>
-      <c r="I200" s="16">
+      <c r="I200" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="J200" s="16">
+      <c r="J200" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K200" s="16">
+      <c r="K200" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="L200" s="16">
+      <c r="L200" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
@@ -8190,16 +8199,16 @@
       <c r="H201" s="9">
         <v>21.900000000000002</v>
       </c>
-      <c r="I201" s="16">
+      <c r="I201" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="J201" s="16">
+      <c r="J201" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="K201" s="16">
+      <c r="K201" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="L201" s="16">
+      <c r="L201" s="18">
         <v>0.69791666666666663</v>
       </c>
     </row>
@@ -8225,16 +8234,16 @@
       <c r="H202" s="9">
         <v>22.64</v>
       </c>
-      <c r="I202" s="16">
+      <c r="I202" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J202" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K202" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L202" s="6" t="s">
+      <c r="J202" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K202" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L202" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8260,16 +8269,16 @@
       <c r="H203" s="9">
         <v>21.62</v>
       </c>
-      <c r="I203" s="16">
+      <c r="I203" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J203" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K203" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L203" s="6" t="s">
+      <c r="J203" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K203" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L203" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8295,16 +8304,16 @@
       <c r="H204" s="9">
         <v>21.78</v>
       </c>
-      <c r="I204" s="16">
+      <c r="I204" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J204" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K204" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L204" s="6" t="s">
+      <c r="J204" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K204" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L204" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8330,16 +8339,16 @@
       <c r="H205" s="9">
         <v>21.2</v>
       </c>
-      <c r="I205" s="16">
+      <c r="I205" s="18">
         <v>0.97222222222222221</v>
       </c>
-      <c r="J205" s="16">
+      <c r="J205" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K205" s="16">
+      <c r="K205" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L205" s="16">
+      <c r="L205" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
@@ -8365,16 +8374,16 @@
       <c r="H206" s="9">
         <v>21.28</v>
       </c>
-      <c r="I206" s="16">
+      <c r="I206" s="18">
         <v>0.98611111111111116</v>
       </c>
-      <c r="J206" s="16">
+      <c r="J206" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K206" s="16">
+      <c r="K206" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L206" s="16">
+      <c r="L206" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -8400,16 +8409,16 @@
       <c r="H207" s="9">
         <v>22.060000000000002</v>
       </c>
-      <c r="I207" s="16">
+      <c r="I207" s="18">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="J207" s="16">
+      <c r="J207" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K207" s="16">
+      <c r="K207" s="18">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="L207" s="16">
+      <c r="L207" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -8435,16 +8444,16 @@
       <c r="H208" s="9">
         <v>22.44</v>
       </c>
-      <c r="I208" s="16">
+      <c r="I208" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="J208" s="16">
+      <c r="J208" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K208" s="16">
+      <c r="K208" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L208" s="16">
+      <c r="L208" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -8470,16 +8479,16 @@
       <c r="H209" s="9">
         <v>21.46</v>
       </c>
-      <c r="I209" s="16">
+      <c r="I209" s="18">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="J209" s="16">
+      <c r="J209" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K209" s="16">
+      <c r="K209" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L209" s="16">
+      <c r="L209" s="18">
         <v>0.10069444444444443</v>
       </c>
     </row>
@@ -8505,16 +8514,16 @@
       <c r="H210" s="9">
         <v>22.360000000000003</v>
       </c>
-      <c r="I210" s="16">
+      <c r="I210" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J210" s="16">
+      <c r="J210" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K210" s="16">
+      <c r="K210" s="18">
         <v>0.47222222222222227</v>
       </c>
-      <c r="L210" s="16">
+      <c r="L210" s="18">
         <v>0.47569444444444442</v>
       </c>
     </row>
@@ -8540,16 +8549,16 @@
       <c r="H211" s="9">
         <v>22.64</v>
       </c>
-      <c r="I211" s="16">
+      <c r="I211" s="18">
         <v>0.66319444444444442</v>
       </c>
-      <c r="J211" s="16">
+      <c r="J211" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="K211" s="16">
+      <c r="K211" s="18">
         <v>0.6875</v>
       </c>
-      <c r="L211" s="16">
+      <c r="L211" s="18">
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -8575,16 +8584,16 @@
       <c r="H212" s="9">
         <v>21.64</v>
       </c>
-      <c r="I212" s="16">
+      <c r="I212" s="18">
         <v>0.67708333333333337</v>
       </c>
-      <c r="J212" s="16">
+      <c r="J212" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K212" s="16">
+      <c r="K212" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L212" s="16">
+      <c r="L212" s="18">
         <v>0.71180555555555547</v>
       </c>
     </row>
@@ -8610,16 +8619,16 @@
       <c r="H213" s="9">
         <v>22.139999999999997</v>
       </c>
-      <c r="I213" s="16">
+      <c r="I213" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J213" s="16">
+      <c r="J213" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="K213" s="16">
+      <c r="K213" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="L213" s="16">
+      <c r="L213" s="18">
         <v>0.75347222222222221</v>
       </c>
     </row>
@@ -8645,16 +8654,16 @@
       <c r="H214" s="9">
         <v>21.700000000000003</v>
       </c>
-      <c r="I214" s="16">
+      <c r="I214" s="18">
         <v>0.75</v>
       </c>
-      <c r="J214" s="16">
+      <c r="J214" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="K214" s="16">
+      <c r="K214" s="18">
         <v>0.76388888888888884</v>
       </c>
-      <c r="L214" s="16">
+      <c r="L214" s="18">
         <v>0.76736111111111116</v>
       </c>
     </row>
@@ -8680,16 +8689,16 @@
       <c r="H215" s="10">
         <v>21.66</v>
       </c>
-      <c r="I215" s="17">
+      <c r="I215" s="19">
         <v>0.93402777777777779</v>
       </c>
-      <c r="J215" s="17">
+      <c r="J215" s="19">
         <v>0.9375</v>
       </c>
-      <c r="K215" s="17">
+      <c r="K215" s="19">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L215" s="17">
+      <c r="L215" s="19">
         <v>0.95486111111111116</v>
       </c>
     </row>
@@ -8715,16 +8724,16 @@
       <c r="H216" s="9">
         <v>18.880000000000003</v>
       </c>
-      <c r="I216" s="16">
+      <c r="I216" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="J216" s="16">
+      <c r="J216" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K216" s="16">
+      <c r="K216" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="L216" s="16">
+      <c r="L216" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
@@ -8750,16 +8759,16 @@
       <c r="H217" s="9">
         <v>21.900000000000002</v>
       </c>
-      <c r="I217" s="16">
+      <c r="I217" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="J217" s="16">
+      <c r="J217" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="K217" s="16">
+      <c r="K217" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="L217" s="16">
+      <c r="L217" s="18">
         <v>0.69791666666666663</v>
       </c>
     </row>
@@ -8785,16 +8794,16 @@
       <c r="H218" s="9">
         <v>22.64</v>
       </c>
-      <c r="I218" s="16">
+      <c r="I218" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J218" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K218" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L218" s="6" t="s">
+      <c r="J218" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K218" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L218" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8820,16 +8829,16 @@
       <c r="H219" s="9">
         <v>21.62</v>
       </c>
-      <c r="I219" s="16">
+      <c r="I219" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J219" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K219" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L219" s="6" t="s">
+      <c r="J219" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K219" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L219" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8855,16 +8864,16 @@
       <c r="H220" s="9">
         <v>21.78</v>
       </c>
-      <c r="I220" s="16">
+      <c r="I220" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J220" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K220" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L220" s="6" t="s">
+      <c r="J220" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K220" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L220" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8890,16 +8899,16 @@
       <c r="H221" s="9">
         <v>21.2</v>
       </c>
-      <c r="I221" s="16">
+      <c r="I221" s="18">
         <v>0.97222222222222221</v>
       </c>
-      <c r="J221" s="16">
+      <c r="J221" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K221" s="16">
+      <c r="K221" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L221" s="16">
+      <c r="L221" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
@@ -8925,16 +8934,16 @@
       <c r="H222" s="9">
         <v>21.28</v>
       </c>
-      <c r="I222" s="16">
+      <c r="I222" s="18">
         <v>0.98611111111111116</v>
       </c>
-      <c r="J222" s="16">
+      <c r="J222" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K222" s="16">
+      <c r="K222" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L222" s="16">
+      <c r="L222" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -8960,16 +8969,16 @@
       <c r="H223" s="9">
         <v>22.060000000000002</v>
       </c>
-      <c r="I223" s="16">
+      <c r="I223" s="18">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="J223" s="16">
+      <c r="J223" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K223" s="16">
+      <c r="K223" s="18">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="L223" s="16">
+      <c r="L223" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -8995,16 +9004,16 @@
       <c r="H224" s="9">
         <v>22.44</v>
       </c>
-      <c r="I224" s="16">
+      <c r="I224" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="J224" s="16">
+      <c r="J224" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K224" s="16">
+      <c r="K224" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L224" s="16">
+      <c r="L224" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -9030,16 +9039,16 @@
       <c r="H225" s="9">
         <v>21.46</v>
       </c>
-      <c r="I225" s="16">
+      <c r="I225" s="18">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="J225" s="16">
+      <c r="J225" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K225" s="16">
+      <c r="K225" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L225" s="16">
+      <c r="L225" s="18">
         <v>0.10069444444444443</v>
       </c>
     </row>
@@ -9065,16 +9074,16 @@
       <c r="H226" s="9">
         <v>22.360000000000003</v>
       </c>
-      <c r="I226" s="16">
+      <c r="I226" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J226" s="16">
+      <c r="J226" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K226" s="16">
+      <c r="K226" s="18">
         <v>0.47222222222222227</v>
       </c>
-      <c r="L226" s="16">
+      <c r="L226" s="18">
         <v>0.47569444444444442</v>
       </c>
     </row>
@@ -9100,16 +9109,16 @@
       <c r="H227" s="9">
         <v>22.64</v>
       </c>
-      <c r="I227" s="16">
+      <c r="I227" s="18">
         <v>0.66319444444444442</v>
       </c>
-      <c r="J227" s="16">
+      <c r="J227" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="K227" s="16">
+      <c r="K227" s="18">
         <v>0.6875</v>
       </c>
-      <c r="L227" s="16">
+      <c r="L227" s="18">
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -9135,16 +9144,16 @@
       <c r="H228" s="9">
         <v>21.64</v>
       </c>
-      <c r="I228" s="16">
+      <c r="I228" s="18">
         <v>0.67708333333333337</v>
       </c>
-      <c r="J228" s="16">
+      <c r="J228" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K228" s="16">
+      <c r="K228" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L228" s="16">
+      <c r="L228" s="18">
         <v>0.71180555555555547</v>
       </c>
     </row>
@@ -9170,16 +9179,16 @@
       <c r="H229" s="9">
         <v>22.139999999999997</v>
       </c>
-      <c r="I229" s="16">
+      <c r="I229" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J229" s="16">
+      <c r="J229" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="K229" s="16">
+      <c r="K229" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="L229" s="16">
+      <c r="L229" s="18">
         <v>0.75347222222222221</v>
       </c>
     </row>
@@ -9205,16 +9214,16 @@
       <c r="H230" s="9">
         <v>21.700000000000003</v>
       </c>
-      <c r="I230" s="16">
+      <c r="I230" s="18">
         <v>0.75</v>
       </c>
-      <c r="J230" s="16">
+      <c r="J230" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="K230" s="16">
+      <c r="K230" s="18">
         <v>0.76388888888888884</v>
       </c>
-      <c r="L230" s="16">
+      <c r="L230" s="18">
         <v>0.76736111111111116</v>
       </c>
     </row>
@@ -9240,16 +9249,16 @@
       <c r="H231" s="10">
         <v>21.66</v>
       </c>
-      <c r="I231" s="17">
+      <c r="I231" s="19">
         <v>0.93402777777777779</v>
       </c>
-      <c r="J231" s="17">
+      <c r="J231" s="19">
         <v>0.9375</v>
       </c>
-      <c r="K231" s="17">
+      <c r="K231" s="19">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L231" s="17">
+      <c r="L231" s="19">
         <v>0.95486111111111116</v>
       </c>
     </row>
@@ -9275,16 +9284,16 @@
       <c r="H232" s="9">
         <v>18.880000000000003</v>
       </c>
-      <c r="I232" s="16">
+      <c r="I232" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="J232" s="16">
+      <c r="J232" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K232" s="16">
+      <c r="K232" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="L232" s="16">
+      <c r="L232" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
@@ -9310,16 +9319,16 @@
       <c r="H233" s="9">
         <v>21.900000000000002</v>
       </c>
-      <c r="I233" s="16">
+      <c r="I233" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="J233" s="16">
+      <c r="J233" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="K233" s="16">
+      <c r="K233" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="L233" s="16">
+      <c r="L233" s="18">
         <v>0.69791666666666663</v>
       </c>
     </row>
@@ -9345,16 +9354,16 @@
       <c r="H234" s="9">
         <v>22.64</v>
       </c>
-      <c r="I234" s="16">
+      <c r="I234" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J234" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K234" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L234" s="6" t="s">
+      <c r="J234" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K234" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L234" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9380,16 +9389,16 @@
       <c r="H235" s="9">
         <v>21.62</v>
       </c>
-      <c r="I235" s="16">
+      <c r="I235" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J235" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K235" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L235" s="6" t="s">
+      <c r="J235" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K235" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L235" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9415,16 +9424,16 @@
       <c r="H236" s="9">
         <v>21.78</v>
       </c>
-      <c r="I236" s="16">
+      <c r="I236" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J236" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K236" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L236" s="6" t="s">
+      <c r="J236" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K236" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L236" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9450,16 +9459,16 @@
       <c r="H237" s="9">
         <v>21.2</v>
       </c>
-      <c r="I237" s="16">
+      <c r="I237" s="18">
         <v>0.97222222222222221</v>
       </c>
-      <c r="J237" s="16">
+      <c r="J237" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K237" s="16">
+      <c r="K237" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L237" s="16">
+      <c r="L237" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
@@ -9485,16 +9494,16 @@
       <c r="H238" s="9">
         <v>21.28</v>
       </c>
-      <c r="I238" s="16">
+      <c r="I238" s="18">
         <v>0.98611111111111116</v>
       </c>
-      <c r="J238" s="16">
+      <c r="J238" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K238" s="16">
+      <c r="K238" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L238" s="16">
+      <c r="L238" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -9520,16 +9529,16 @@
       <c r="H239" s="9">
         <v>22.060000000000002</v>
       </c>
-      <c r="I239" s="16">
+      <c r="I239" s="18">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="J239" s="16">
+      <c r="J239" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K239" s="16">
+      <c r="K239" s="18">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="L239" s="16">
+      <c r="L239" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -9555,16 +9564,16 @@
       <c r="H240" s="9">
         <v>22.44</v>
       </c>
-      <c r="I240" s="16">
+      <c r="I240" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="J240" s="16">
+      <c r="J240" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K240" s="16">
+      <c r="K240" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L240" s="16">
+      <c r="L240" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -9590,16 +9599,16 @@
       <c r="H241" s="9">
         <v>21.46</v>
       </c>
-      <c r="I241" s="16">
+      <c r="I241" s="18">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="J241" s="16">
+      <c r="J241" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K241" s="16">
+      <c r="K241" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L241" s="16">
+      <c r="L241" s="18">
         <v>0.10069444444444443</v>
       </c>
     </row>
@@ -9625,16 +9634,16 @@
       <c r="H242" s="9">
         <v>22.360000000000003</v>
       </c>
-      <c r="I242" s="16">
+      <c r="I242" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J242" s="16">
+      <c r="J242" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K242" s="16">
+      <c r="K242" s="18">
         <v>0.47222222222222227</v>
       </c>
-      <c r="L242" s="16">
+      <c r="L242" s="18">
         <v>0.47569444444444442</v>
       </c>
     </row>
@@ -9660,16 +9669,16 @@
       <c r="H243" s="9">
         <v>22.64</v>
       </c>
-      <c r="I243" s="16">
+      <c r="I243" s="18">
         <v>0.66319444444444442</v>
       </c>
-      <c r="J243" s="16">
+      <c r="J243" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="K243" s="16">
+      <c r="K243" s="18">
         <v>0.6875</v>
       </c>
-      <c r="L243" s="16">
+      <c r="L243" s="18">
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -9695,16 +9704,16 @@
       <c r="H244" s="9">
         <v>21.64</v>
       </c>
-      <c r="I244" s="16">
+      <c r="I244" s="18">
         <v>0.67708333333333337</v>
       </c>
-      <c r="J244" s="16">
+      <c r="J244" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K244" s="16">
+      <c r="K244" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L244" s="16">
+      <c r="L244" s="18">
         <v>0.71180555555555547</v>
       </c>
     </row>
@@ -9730,16 +9739,16 @@
       <c r="H245" s="9">
         <v>22.139999999999997</v>
       </c>
-      <c r="I245" s="16">
+      <c r="I245" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J245" s="16">
+      <c r="J245" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="K245" s="16">
+      <c r="K245" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="L245" s="16">
+      <c r="L245" s="18">
         <v>0.75347222222222221</v>
       </c>
     </row>
@@ -9765,16 +9774,16 @@
       <c r="H246" s="9">
         <v>21.700000000000003</v>
       </c>
-      <c r="I246" s="16">
+      <c r="I246" s="18">
         <v>0.75</v>
       </c>
-      <c r="J246" s="16">
+      <c r="J246" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="K246" s="16">
+      <c r="K246" s="18">
         <v>0.76388888888888884</v>
       </c>
-      <c r="L246" s="16">
+      <c r="L246" s="18">
         <v>0.76736111111111116</v>
       </c>
     </row>
@@ -9800,16 +9809,16 @@
       <c r="H247" s="10">
         <v>21.66</v>
       </c>
-      <c r="I247" s="17">
+      <c r="I247" s="19">
         <v>0.93402777777777779</v>
       </c>
-      <c r="J247" s="17">
+      <c r="J247" s="19">
         <v>0.9375</v>
       </c>
-      <c r="K247" s="17">
+      <c r="K247" s="19">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L247" s="17">
+      <c r="L247" s="19">
         <v>0.95486111111111116</v>
       </c>
     </row>
@@ -9835,16 +9844,16 @@
       <c r="H248" s="9">
         <v>18.880000000000003</v>
       </c>
-      <c r="I248" s="16">
+      <c r="I248" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="J248" s="16">
+      <c r="J248" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K248" s="16">
+      <c r="K248" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="L248" s="16">
+      <c r="L248" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
@@ -9870,16 +9879,16 @@
       <c r="H249" s="9">
         <v>21.900000000000002</v>
       </c>
-      <c r="I249" s="16">
+      <c r="I249" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="J249" s="16">
+      <c r="J249" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="K249" s="16">
+      <c r="K249" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="L249" s="16">
+      <c r="L249" s="18">
         <v>0.69791666666666663</v>
       </c>
     </row>
@@ -9905,16 +9914,16 @@
       <c r="H250" s="9">
         <v>22.64</v>
       </c>
-      <c r="I250" s="16">
+      <c r="I250" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J250" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K250" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L250" s="6" t="s">
+      <c r="J250" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K250" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L250" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9940,16 +9949,16 @@
       <c r="H251" s="9">
         <v>21.62</v>
       </c>
-      <c r="I251" s="16">
+      <c r="I251" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J251" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K251" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L251" s="6" t="s">
+      <c r="J251" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K251" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L251" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9975,16 +9984,16 @@
       <c r="H252" s="9">
         <v>21.78</v>
       </c>
-      <c r="I252" s="16">
+      <c r="I252" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J252" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K252" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L252" s="6" t="s">
+      <c r="J252" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K252" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L252" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10010,16 +10019,16 @@
       <c r="H253" s="9">
         <v>21.2</v>
       </c>
-      <c r="I253" s="16">
+      <c r="I253" s="18">
         <v>0.97222222222222221</v>
       </c>
-      <c r="J253" s="16">
+      <c r="J253" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K253" s="16">
+      <c r="K253" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L253" s="16">
+      <c r="L253" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
@@ -10045,16 +10054,16 @@
       <c r="H254" s="9">
         <v>21.28</v>
       </c>
-      <c r="I254" s="16">
+      <c r="I254" s="18">
         <v>0.98611111111111116</v>
       </c>
-      <c r="J254" s="16">
+      <c r="J254" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K254" s="16">
+      <c r="K254" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L254" s="16">
+      <c r="L254" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -10080,16 +10089,16 @@
       <c r="H255" s="9">
         <v>22.060000000000002</v>
       </c>
-      <c r="I255" s="16">
+      <c r="I255" s="18">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="J255" s="16">
+      <c r="J255" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K255" s="16">
+      <c r="K255" s="18">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="L255" s="16">
+      <c r="L255" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -10115,16 +10124,16 @@
       <c r="H256" s="9">
         <v>22.44</v>
       </c>
-      <c r="I256" s="16">
+      <c r="I256" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="J256" s="16">
+      <c r="J256" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K256" s="16">
+      <c r="K256" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L256" s="16">
+      <c r="L256" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -10150,16 +10159,16 @@
       <c r="H257" s="9">
         <v>21.46</v>
       </c>
-      <c r="I257" s="16">
+      <c r="I257" s="18">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="J257" s="16">
+      <c r="J257" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K257" s="16">
+      <c r="K257" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L257" s="16">
+      <c r="L257" s="18">
         <v>0.10069444444444443</v>
       </c>
     </row>
@@ -10185,16 +10194,16 @@
       <c r="H258" s="9">
         <v>22.360000000000003</v>
       </c>
-      <c r="I258" s="16">
+      <c r="I258" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J258" s="16">
+      <c r="J258" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K258" s="16">
+      <c r="K258" s="18">
         <v>0.47222222222222227</v>
       </c>
-      <c r="L258" s="16">
+      <c r="L258" s="18">
         <v>0.47569444444444442</v>
       </c>
     </row>
@@ -10220,16 +10229,16 @@
       <c r="H259" s="9">
         <v>22.64</v>
       </c>
-      <c r="I259" s="16">
+      <c r="I259" s="18">
         <v>0.66319444444444442</v>
       </c>
-      <c r="J259" s="16">
+      <c r="J259" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="K259" s="16">
+      <c r="K259" s="18">
         <v>0.6875</v>
       </c>
-      <c r="L259" s="16">
+      <c r="L259" s="18">
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -10255,16 +10264,16 @@
       <c r="H260" s="9">
         <v>21.64</v>
       </c>
-      <c r="I260" s="16">
+      <c r="I260" s="18">
         <v>0.67708333333333337</v>
       </c>
-      <c r="J260" s="16">
+      <c r="J260" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K260" s="16">
+      <c r="K260" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L260" s="16">
+      <c r="L260" s="18">
         <v>0.71180555555555547</v>
       </c>
     </row>
@@ -10290,16 +10299,16 @@
       <c r="H261" s="9">
         <v>22.139999999999997</v>
       </c>
-      <c r="I261" s="16">
+      <c r="I261" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J261" s="16">
+      <c r="J261" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="K261" s="16">
+      <c r="K261" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="L261" s="16">
+      <c r="L261" s="18">
         <v>0.75347222222222221</v>
       </c>
     </row>
@@ -10325,16 +10334,16 @@
       <c r="H262" s="9">
         <v>21.700000000000003</v>
       </c>
-      <c r="I262" s="16">
+      <c r="I262" s="18">
         <v>0.75</v>
       </c>
-      <c r="J262" s="16">
+      <c r="J262" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="K262" s="16">
+      <c r="K262" s="18">
         <v>0.76388888888888884</v>
       </c>
-      <c r="L262" s="16">
+      <c r="L262" s="18">
         <v>0.76736111111111116</v>
       </c>
     </row>
@@ -10360,16 +10369,16 @@
       <c r="H263" s="10">
         <v>21.66</v>
       </c>
-      <c r="I263" s="17">
+      <c r="I263" s="19">
         <v>0.93402777777777779</v>
       </c>
-      <c r="J263" s="17">
+      <c r="J263" s="19">
         <v>0.9375</v>
       </c>
-      <c r="K263" s="17">
+      <c r="K263" s="19">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L263" s="17">
+      <c r="L263" s="19">
         <v>0.95486111111111116</v>
       </c>
     </row>
@@ -10395,16 +10404,16 @@
       <c r="H264" s="9">
         <v>18.880000000000003</v>
       </c>
-      <c r="I264" s="16">
+      <c r="I264" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="J264" s="16">
+      <c r="J264" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K264" s="16">
+      <c r="K264" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="L264" s="16">
+      <c r="L264" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
@@ -10430,16 +10439,16 @@
       <c r="H265" s="9">
         <v>21.900000000000002</v>
       </c>
-      <c r="I265" s="16">
+      <c r="I265" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="J265" s="16">
+      <c r="J265" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="K265" s="16">
+      <c r="K265" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="L265" s="16">
+      <c r="L265" s="18">
         <v>0.69791666666666663</v>
       </c>
     </row>
@@ -10465,16 +10474,16 @@
       <c r="H266" s="9">
         <v>22.64</v>
       </c>
-      <c r="I266" s="16">
+      <c r="I266" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J266" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K266" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L266" s="6" t="s">
+      <c r="J266" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K266" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L266" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10500,16 +10509,16 @@
       <c r="H267" s="9">
         <v>21.62</v>
       </c>
-      <c r="I267" s="16">
+      <c r="I267" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J267" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K267" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L267" s="6" t="s">
+      <c r="J267" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K267" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L267" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10535,16 +10544,16 @@
       <c r="H268" s="9">
         <v>21.78</v>
       </c>
-      <c r="I268" s="16">
+      <c r="I268" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J268" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K268" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L268" s="6" t="s">
+      <c r="J268" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K268" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L268" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10570,16 +10579,16 @@
       <c r="H269" s="9">
         <v>21.2</v>
       </c>
-      <c r="I269" s="16">
+      <c r="I269" s="18">
         <v>0.97222222222222221</v>
       </c>
-      <c r="J269" s="16">
+      <c r="J269" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K269" s="16">
+      <c r="K269" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L269" s="16">
+      <c r="L269" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
@@ -10605,16 +10614,16 @@
       <c r="H270" s="9">
         <v>21.28</v>
       </c>
-      <c r="I270" s="16">
+      <c r="I270" s="18">
         <v>0.98611111111111116</v>
       </c>
-      <c r="J270" s="16">
+      <c r="J270" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K270" s="16">
+      <c r="K270" s="18">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L270" s="16">
+      <c r="L270" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -10640,16 +10649,16 @@
       <c r="H271" s="9">
         <v>22.060000000000002</v>
       </c>
-      <c r="I271" s="16">
+      <c r="I271" s="18">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="J271" s="16">
+      <c r="J271" s="18">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K271" s="16">
+      <c r="K271" s="18">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="L271" s="16">
+      <c r="L271" s="18">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -10675,16 +10684,16 @@
       <c r="H272" s="9">
         <v>22.44</v>
       </c>
-      <c r="I272" s="16">
+      <c r="I272" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="J272" s="16">
+      <c r="J272" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K272" s="16">
+      <c r="K272" s="18">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L272" s="16">
+      <c r="L272" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -10710,16 +10719,16 @@
       <c r="H273" s="9">
         <v>21.46</v>
       </c>
-      <c r="I273" s="16">
+      <c r="I273" s="18">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="J273" s="16">
+      <c r="J273" s="18">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="K273" s="16">
+      <c r="K273" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="L273" s="16">
+      <c r="L273" s="18">
         <v>0.10069444444444443</v>
       </c>
     </row>
@@ -10745,16 +10754,16 @@
       <c r="H274" s="9">
         <v>22.360000000000003</v>
       </c>
-      <c r="I274" s="16">
+      <c r="I274" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J274" s="16">
+      <c r="J274" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K274" s="16">
+      <c r="K274" s="18">
         <v>0.47222222222222227</v>
       </c>
-      <c r="L274" s="16">
+      <c r="L274" s="18">
         <v>0.47569444444444442</v>
       </c>
     </row>
@@ -10780,16 +10789,16 @@
       <c r="H275" s="9">
         <v>22.64</v>
       </c>
-      <c r="I275" s="16">
+      <c r="I275" s="18">
         <v>0.66319444444444442</v>
       </c>
-      <c r="J275" s="16">
+      <c r="J275" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="K275" s="16">
+      <c r="K275" s="18">
         <v>0.6875</v>
       </c>
-      <c r="L275" s="16">
+      <c r="L275" s="18">
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -10815,16 +10824,16 @@
       <c r="H276" s="9">
         <v>21.64</v>
       </c>
-      <c r="I276" s="16">
+      <c r="I276" s="18">
         <v>0.67708333333333337</v>
       </c>
-      <c r="J276" s="16">
+      <c r="J276" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K276" s="16">
+      <c r="K276" s="18">
         <v>0.70486111111111116</v>
       </c>
-      <c r="L276" s="16">
+      <c r="L276" s="18">
         <v>0.71180555555555547</v>
       </c>
     </row>
@@ -10850,16 +10859,16 @@
       <c r="H277" s="9">
         <v>22.139999999999997</v>
       </c>
-      <c r="I277" s="16">
+      <c r="I277" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J277" s="16">
+      <c r="J277" s="18">
         <v>0.73611111111111116</v>
       </c>
-      <c r="K277" s="16">
+      <c r="K277" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="L277" s="16">
+      <c r="L277" s="18">
         <v>0.75347222222222221</v>
       </c>
     </row>
@@ -10885,16 +10894,16 @@
       <c r="H278" s="9">
         <v>21.700000000000003</v>
       </c>
-      <c r="I278" s="16">
+      <c r="I278" s="18">
         <v>0.75</v>
       </c>
-      <c r="J278" s="16">
+      <c r="J278" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="K278" s="16">
+      <c r="K278" s="18">
         <v>0.76388888888888884</v>
       </c>
-      <c r="L278" s="16">
+      <c r="L278" s="18">
         <v>0.76736111111111116</v>
       </c>
     </row>
@@ -10920,16 +10929,16 @@
       <c r="H279" s="10">
         <v>21.66</v>
       </c>
-      <c r="I279" s="17">
+      <c r="I279" s="19">
         <v>0.93402777777777779</v>
       </c>
-      <c r="J279" s="17">
+      <c r="J279" s="19">
         <v>0.9375</v>
       </c>
-      <c r="K279" s="17">
+      <c r="K279" s="19">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L279" s="17">
+      <c r="L279" s="19">
         <v>0.95486111111111116</v>
       </c>
     </row>
